--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{69EC8CB9-C813-4DDD-ACD9-C3A5EF4D232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33D401C2-B8F0-47C4-A3E7-4E187755308C}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{69EC8CB9-C813-4DDD-ACD9-C3A5EF4D232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD72C4B5-6582-4685-BA50-60C08F8D470A}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="8880" xr2:uid="{59011258-3E7A-408E-B881-47367FDC8FB6}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" xr2:uid="{59011258-3E7A-408E-B881-47367FDC8FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Location</t>
   </si>
@@ -68,18 +68,6 @@
     <t>controller</t>
   </si>
   <si>
-    <t>examadmindec0012</t>
-  </si>
-  <si>
-    <t>exam</t>
-  </si>
-  <si>
-    <t>proctordec0012</t>
-  </si>
-  <si>
-    <t>examtakerdec0012</t>
-  </si>
-  <si>
     <t>ExamName</t>
   </si>
   <si>
@@ -92,31 +80,139 @@
     <t>controller11</t>
   </si>
   <si>
-    <t>FPK12Exam98017</t>
-  </si>
-  <si>
-    <t>FPK12Schedule14858</t>
-  </si>
-  <si>
-    <t>Canada dec0012</t>
-  </si>
-  <si>
-    <t>FPK12Exam13085</t>
-  </si>
-  <si>
-    <t>FPK12Schedule64395</t>
-  </si>
-  <si>
-    <t>FPK12Exam13284</t>
-  </si>
-  <si>
-    <t>FPK12Schedule10228</t>
-  </si>
-  <si>
-    <t>FPK12Exam76709</t>
-  </si>
-  <si>
-    <t>FPK12Schedule74141</t>
+    <t>proctor</t>
+  </si>
+  <si>
+    <t>examtaker</t>
+  </si>
+  <si>
+    <t>fpkcontroller</t>
+  </si>
+  <si>
+    <t>FPKproctor</t>
+  </si>
+  <si>
+    <t>FPKexamtaker</t>
+  </si>
+  <si>
+    <t>ECLocation572794</t>
+  </si>
+  <si>
+    <t>654359</t>
+  </si>
+  <si>
+    <t>106485</t>
+  </si>
+  <si>
+    <t>858831</t>
+  </si>
+  <si>
+    <t>FPK12Exam596345</t>
+  </si>
+  <si>
+    <t>FPK12Schedule904157</t>
+  </si>
+  <si>
+    <t>FPK12Exam730868</t>
+  </si>
+  <si>
+    <t>FPK12Schedule44509</t>
+  </si>
+  <si>
+    <t>FPK12Exam233047</t>
+  </si>
+  <si>
+    <t>FPK12Schedule644276</t>
+  </si>
+  <si>
+    <t>FPK12Exam923316</t>
+  </si>
+  <si>
+    <t>FPK12Schedule941659</t>
+  </si>
+  <si>
+    <t>FPK12Exam978657</t>
+  </si>
+  <si>
+    <t>FPK12Schedule68062</t>
+  </si>
+  <si>
+    <t>ECLocation686742</t>
+  </si>
+  <si>
+    <t>950317</t>
+  </si>
+  <si>
+    <t>782115</t>
+  </si>
+  <si>
+    <t>450002</t>
+  </si>
+  <si>
+    <t>FPK12Exam917457</t>
+  </si>
+  <si>
+    <t>FPK12Schedule821649</t>
+  </si>
+  <si>
+    <t>FPK12Exam376606</t>
+  </si>
+  <si>
+    <t>FPK12Schedule265716</t>
+  </si>
+  <si>
+    <t>ECLocation484956</t>
+  </si>
+  <si>
+    <t>269011</t>
+  </si>
+  <si>
+    <t>209798</t>
+  </si>
+  <si>
+    <t>625286</t>
+  </si>
+  <si>
+    <t>FPK12Exam287984</t>
+  </si>
+  <si>
+    <t>FPK12Schedule41232</t>
+  </si>
+  <si>
+    <t>ECLocation169733</t>
+  </si>
+  <si>
+    <t>138097</t>
+  </si>
+  <si>
+    <t>649399</t>
+  </si>
+  <si>
+    <t>763278</t>
+  </si>
+  <si>
+    <t>FPK12Exam586516</t>
+  </si>
+  <si>
+    <t>FPK12Schedule666173</t>
+  </si>
+  <si>
+    <t>ECLocation537489</t>
+  </si>
+  <si>
+    <t>433036</t>
+  </si>
+  <si>
+    <t>996477</t>
+  </si>
+  <si>
+    <t>994332</t>
+  </si>
+  <si>
+    <t>FPK12Exam569854</t>
+  </si>
+  <si>
+    <t>FPK12Schedule593528</t>
   </si>
 </sst>
 </file>
@@ -124,7 +220,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,13 +265,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -197,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -209,32 +298,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -268,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,9 +339,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,31 +360,83 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,17 +780,17 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="17.21875"/>
-    <col min="2" max="2" customWidth="true" style="4" width="21.77734375"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625"/>
+    <col min="2" max="2" customWidth="true" style="3" width="21.77734375"/>
+    <col min="3" max="3" customWidth="true" style="11" width="18.44140625"/>
     <col min="4" max="4" customWidth="true" width="14.88671875"/>
     <col min="5" max="5" customWidth="true" width="20.0"/>
-    <col min="6" max="6" customWidth="true" width="13.0"/>
+    <col min="6" max="6" customWidth="true" width="28.5546875"/>
     <col min="7" max="7" customWidth="true" width="12.5546875"/>
     <col min="8" max="8" customWidth="true" width="18.88671875"/>
     <col min="9" max="9" customWidth="true" width="23.109375"/>
@@ -691,7 +803,7 @@
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -703,83 +815,105 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>15</v>
+      <c r="H1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
-        <v>20</v>
+      <c r="A2" t="s" s="34">
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>17</v>
+      <c r="C2" s="12"/>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="12">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s" s="18">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s" s="19">
-        <v>26</v>
+      <c r="H2" t="s" s="35">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s" s="36">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D3" s="7" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="5">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{69EC8CB9-C813-4DDD-ACD9-C3A5EF4D232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD72C4B5-6582-4685-BA50-60C08F8D470A}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{69EC8CB9-C813-4DDD-ACD9-C3A5EF4D232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2714CCEA-603E-4426-BA0E-2C8F692271ED}"/>
   <bookViews>
     <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" xr2:uid="{59011258-3E7A-408E-B881-47367FDC8FB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Location</t>
   </si>
@@ -95,124 +95,40 @@
     <t>FPKexamtaker</t>
   </si>
   <si>
-    <t>ECLocation572794</t>
-  </si>
-  <si>
-    <t>654359</t>
-  </si>
-  <si>
-    <t>106485</t>
-  </si>
-  <si>
-    <t>858831</t>
-  </si>
-  <si>
-    <t>FPK12Exam596345</t>
-  </si>
-  <si>
-    <t>FPK12Schedule904157</t>
-  </si>
-  <si>
-    <t>FPK12Exam730868</t>
-  </si>
-  <si>
-    <t>FPK12Schedule44509</t>
-  </si>
-  <si>
-    <t>FPK12Exam233047</t>
-  </si>
-  <si>
-    <t>FPK12Schedule644276</t>
-  </si>
-  <si>
-    <t>FPK12Exam923316</t>
-  </si>
-  <si>
-    <t>FPK12Schedule941659</t>
-  </si>
-  <si>
-    <t>FPK12Exam978657</t>
-  </si>
-  <si>
-    <t>FPK12Schedule68062</t>
-  </si>
-  <si>
-    <t>ECLocation686742</t>
-  </si>
-  <si>
-    <t>950317</t>
-  </si>
-  <si>
-    <t>782115</t>
-  </si>
-  <si>
-    <t>450002</t>
-  </si>
-  <si>
-    <t>FPK12Exam917457</t>
-  </si>
-  <si>
-    <t>FPK12Schedule821649</t>
-  </si>
-  <si>
-    <t>FPK12Exam376606</t>
-  </si>
-  <si>
-    <t>FPK12Schedule265716</t>
-  </si>
-  <si>
-    <t>ECLocation484956</t>
-  </si>
-  <si>
-    <t>269011</t>
-  </si>
-  <si>
-    <t>209798</t>
-  </si>
-  <si>
-    <t>625286</t>
-  </si>
-  <si>
-    <t>FPK12Exam287984</t>
-  </si>
-  <si>
-    <t>FPK12Schedule41232</t>
-  </si>
-  <si>
-    <t>ECLocation169733</t>
-  </si>
-  <si>
-    <t>138097</t>
-  </si>
-  <si>
-    <t>649399</t>
-  </si>
-  <si>
-    <t>763278</t>
-  </si>
-  <si>
-    <t>FPK12Exam586516</t>
-  </si>
-  <si>
-    <t>FPK12Schedule666173</t>
-  </si>
-  <si>
-    <t>ECLocation537489</t>
-  </si>
-  <si>
-    <t>433036</t>
-  </si>
-  <si>
-    <t>996477</t>
-  </si>
-  <si>
-    <t>994332</t>
-  </si>
-  <si>
-    <t>FPK12Exam569854</t>
-  </si>
-  <si>
-    <t>FPK12Schedule593528</t>
+    <t>ECLocation808098</t>
+  </si>
+  <si>
+    <t>931850</t>
+  </si>
+  <si>
+    <t>360917</t>
+  </si>
+  <si>
+    <t>716575</t>
+  </si>
+  <si>
+    <t>FPK12Exam369466</t>
+  </si>
+  <si>
+    <t>FPK12Schedule490245</t>
+  </si>
+  <si>
+    <t>ECLocation711910</t>
+  </si>
+  <si>
+    <t>701153</t>
+  </si>
+  <si>
+    <t>999129</t>
+  </si>
+  <si>
+    <t>744290</t>
+  </si>
+  <si>
+    <t>FPK12Exam12949</t>
+  </si>
+  <si>
+    <t>FPK12Schedule648110</t>
   </si>
 </sst>
 </file>
@@ -220,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +180,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -331,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,62 +295,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -780,7 +651,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +660,7 @@
     <col min="2" max="2" customWidth="true" style="3" width="21.77734375"/>
     <col min="3" max="3" customWidth="true" style="11" width="18.44140625"/>
     <col min="4" max="4" customWidth="true" width="14.88671875"/>
-    <col min="5" max="5" customWidth="true" width="20.0"/>
+    <col min="5" max="5" customWidth="true" style="11" width="20.0"/>
     <col min="6" max="6" customWidth="true" width="28.5546875"/>
     <col min="7" max="7" customWidth="true" width="12.5546875"/>
     <col min="8" max="8" customWidth="true" width="18.88671875"/>
@@ -809,7 +680,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -826,8 +697,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="34">
-        <v>53</v>
+      <c r="A2" t="s" s="17">
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -836,7 +707,7 @@
       <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="12">
@@ -845,11 +716,11 @@
       <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s" s="35">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s" s="36">
-        <v>58</v>
+      <c r="H2" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s" s="19">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -861,8 +732,8 @@
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>54</v>
+      <c r="E3" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -882,8 +753,8 @@
       <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>55</v>
+      <c r="E4" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -903,8 +774,8 @@
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>56</v>
+      <c r="E5" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{69EC8CB9-C813-4DDD-ACD9-C3A5EF4D232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2714CCEA-603E-4426-BA0E-2C8F692271ED}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{69EC8CB9-C813-4DDD-ACD9-C3A5EF4D232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E0817A2-575C-4363-B4F6-FB6975F21DB6}"/>
   <bookViews>
     <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" xr2:uid="{59011258-3E7A-408E-B881-47367FDC8FB6}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>TestName</t>
   </si>
   <si>
-    <t>Test For Automation</t>
-  </si>
-  <si>
     <t>@Abcd1234</t>
   </si>
   <si>
@@ -95,24 +92,6 @@
     <t>FPKexamtaker</t>
   </si>
   <si>
-    <t>ECLocation808098</t>
-  </si>
-  <si>
-    <t>931850</t>
-  </si>
-  <si>
-    <t>360917</t>
-  </si>
-  <si>
-    <t>716575</t>
-  </si>
-  <si>
-    <t>FPK12Exam369466</t>
-  </si>
-  <si>
-    <t>FPK12Schedule490245</t>
-  </si>
-  <si>
     <t>ECLocation711910</t>
   </si>
   <si>
@@ -129,6 +108,27 @@
   </si>
   <si>
     <t>FPK12Schedule648110</t>
+  </si>
+  <si>
+    <t>Automation Test</t>
+  </si>
+  <si>
+    <t>ECLocation950014</t>
+  </si>
+  <si>
+    <t>646278</t>
+  </si>
+  <si>
+    <t>990095</t>
+  </si>
+  <si>
+    <t>158061</t>
+  </si>
+  <si>
+    <t>FPK12Exam851624</t>
+  </si>
+  <si>
+    <t>FPK12Schedule460778</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +184,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A3547"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -253,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,13 +298,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
@@ -651,7 +660,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,36 +699,36 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="17">
+      <c r="A2" t="s" s="18">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
+      <c r="B2" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="12">
         <v>5</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s" s="19">
         <v>29</v>
       </c>
-      <c r="I2" t="s" s="19">
+      <c r="I2" t="s" s="20">
         <v>30</v>
       </c>
     </row>
@@ -727,19 +736,19 @@
       <c r="A3" s="13"/>
       <c r="B3" s="4"/>
       <c r="C3" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -748,19 +757,19 @@
       <c r="A4" s="13"/>
       <c r="B4" s="4"/>
       <c r="C4" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -769,19 +778,19 @@
       <c r="A5" s="13"/>
       <c r="B5" s="4"/>
       <c r="C5" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="154">
   <si>
     <t>Location</t>
   </si>
@@ -150,6 +150,354 @@
   </si>
   <si>
     <t>FPK12Schedule473067</t>
+  </si>
+  <si>
+    <t>ECLocation228030</t>
+  </si>
+  <si>
+    <t>195416</t>
+  </si>
+  <si>
+    <t>69322</t>
+  </si>
+  <si>
+    <t>682219</t>
+  </si>
+  <si>
+    <t>FPK12Exam799443</t>
+  </si>
+  <si>
+    <t>FPK12Schedule378619</t>
+  </si>
+  <si>
+    <t>ECLocation248524</t>
+  </si>
+  <si>
+    <t>672107</t>
+  </si>
+  <si>
+    <t>207081</t>
+  </si>
+  <si>
+    <t>989757</t>
+  </si>
+  <si>
+    <t>FPK12Exam910326</t>
+  </si>
+  <si>
+    <t>ECLocation491700</t>
+  </si>
+  <si>
+    <t>89523</t>
+  </si>
+  <si>
+    <t>512827</t>
+  </si>
+  <si>
+    <t>115890</t>
+  </si>
+  <si>
+    <t>FPK12Exam540174</t>
+  </si>
+  <si>
+    <t>FPK12Schedule412109</t>
+  </si>
+  <si>
+    <t>ECLocation41702</t>
+  </si>
+  <si>
+    <t>ECLocation891009</t>
+  </si>
+  <si>
+    <t>729983</t>
+  </si>
+  <si>
+    <t>660969</t>
+  </si>
+  <si>
+    <t>370741</t>
+  </si>
+  <si>
+    <t>FPK12Exam547353</t>
+  </si>
+  <si>
+    <t>FPK12Schedule166595</t>
+  </si>
+  <si>
+    <t>ECLocation956181</t>
+  </si>
+  <si>
+    <t>ECLocation640199</t>
+  </si>
+  <si>
+    <t>556581</t>
+  </si>
+  <si>
+    <t>296174</t>
+  </si>
+  <si>
+    <t>356226</t>
+  </si>
+  <si>
+    <t>FPK12Exam416341</t>
+  </si>
+  <si>
+    <t>FPK12Schedule914277</t>
+  </si>
+  <si>
+    <t>ECLocation535841</t>
+  </si>
+  <si>
+    <t>89067</t>
+  </si>
+  <si>
+    <t>230309</t>
+  </si>
+  <si>
+    <t>344453</t>
+  </si>
+  <si>
+    <t>ECLocation111335</t>
+  </si>
+  <si>
+    <t>37350</t>
+  </si>
+  <si>
+    <t>634850</t>
+  </si>
+  <si>
+    <t>384151</t>
+  </si>
+  <si>
+    <t>FPK12Exam485043</t>
+  </si>
+  <si>
+    <t>ECLocation902777</t>
+  </si>
+  <si>
+    <t>106564</t>
+  </si>
+  <si>
+    <t>818862</t>
+  </si>
+  <si>
+    <t>300495</t>
+  </si>
+  <si>
+    <t>FPK12Exam285388</t>
+  </si>
+  <si>
+    <t>FPK12Schedule691814</t>
+  </si>
+  <si>
+    <t>ECLocation923885</t>
+  </si>
+  <si>
+    <t>653141</t>
+  </si>
+  <si>
+    <t>796920</t>
+  </si>
+  <si>
+    <t>231335</t>
+  </si>
+  <si>
+    <t>ECLocation935590</t>
+  </si>
+  <si>
+    <t>FPK12Exam830726</t>
+  </si>
+  <si>
+    <t>FPK12Schedule951342</t>
+  </si>
+  <si>
+    <t>188444</t>
+  </si>
+  <si>
+    <t>627478</t>
+  </si>
+  <si>
+    <t>175854</t>
+  </si>
+  <si>
+    <t>FPK12Exam588910</t>
+  </si>
+  <si>
+    <t>FPK12Schedule99424</t>
+  </si>
+  <si>
+    <t>ECLocation426104</t>
+  </si>
+  <si>
+    <t>377230</t>
+  </si>
+  <si>
+    <t>459895</t>
+  </si>
+  <si>
+    <t>601483</t>
+  </si>
+  <si>
+    <t>FPK12Exam197859</t>
+  </si>
+  <si>
+    <t>FPK12Schedule734748</t>
+  </si>
+  <si>
+    <t>ECLocation957189</t>
+  </si>
+  <si>
+    <t>810096</t>
+  </si>
+  <si>
+    <t>222200</t>
+  </si>
+  <si>
+    <t>169427</t>
+  </si>
+  <si>
+    <t>FPK12Exam33008</t>
+  </si>
+  <si>
+    <t>FPK12Schedule850231</t>
+  </si>
+  <si>
+    <t>ECLocation523327</t>
+  </si>
+  <si>
+    <t>906587</t>
+  </si>
+  <si>
+    <t>316418</t>
+  </si>
+  <si>
+    <t>63538</t>
+  </si>
+  <si>
+    <t>FPK12Exam217689</t>
+  </si>
+  <si>
+    <t>FPK12Schedule999799</t>
+  </si>
+  <si>
+    <t>ECLocation508828</t>
+  </si>
+  <si>
+    <t>880500</t>
+  </si>
+  <si>
+    <t>850003</t>
+  </si>
+  <si>
+    <t>898258</t>
+  </si>
+  <si>
+    <t>FPK12Exam467585</t>
+  </si>
+  <si>
+    <t>FPK12Schedule285300</t>
+  </si>
+  <si>
+    <t>ECLocation759634</t>
+  </si>
+  <si>
+    <t>138644</t>
+  </si>
+  <si>
+    <t>324951</t>
+  </si>
+  <si>
+    <t>213288</t>
+  </si>
+  <si>
+    <t>FPK12Exam879153</t>
+  </si>
+  <si>
+    <t>ECLocation835597</t>
+  </si>
+  <si>
+    <t>354794</t>
+  </si>
+  <si>
+    <t>152658</t>
+  </si>
+  <si>
+    <t>497213</t>
+  </si>
+  <si>
+    <t>FPK12Exam994597</t>
+  </si>
+  <si>
+    <t>ECLocation793409</t>
+  </si>
+  <si>
+    <t>237290</t>
+  </si>
+  <si>
+    <t>967181</t>
+  </si>
+  <si>
+    <t>412448</t>
+  </si>
+  <si>
+    <t>FPK12Exam378405</t>
+  </si>
+  <si>
+    <t>ECLocation65857</t>
+  </si>
+  <si>
+    <t>ECLocation902611</t>
+  </si>
+  <si>
+    <t>6109</t>
+  </si>
+  <si>
+    <t>799980</t>
+  </si>
+  <si>
+    <t>323369</t>
+  </si>
+  <si>
+    <t>FPK12Exam725355</t>
+  </si>
+  <si>
+    <t>FPK12Schedule874497</t>
+  </si>
+  <si>
+    <t>ECLocation657465</t>
+  </si>
+  <si>
+    <t>630743</t>
+  </si>
+  <si>
+    <t>470213</t>
+  </si>
+  <si>
+    <t>283227</t>
+  </si>
+  <si>
+    <t>FPK12Exam279396</t>
+  </si>
+  <si>
+    <t>FPK12Schedule710608</t>
+  </si>
+  <si>
+    <t>ECLocation253798</t>
+  </si>
+  <si>
+    <t>917893</t>
+  </si>
+  <si>
+    <t>604713</t>
+  </si>
+  <si>
+    <t>547406</t>
+  </si>
+  <si>
+    <t>FPK12Exam71442</t>
+  </si>
+  <si>
+    <t>FPK12Schedule410184</t>
   </si>
 </sst>
 </file>
@@ -280,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,6 +678,174 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -739,8 +1255,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="22">
-        <v>32</v>
+      <c r="A2" t="s" s="78">
+        <v>148</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -758,11 +1274,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="23">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s" s="24">
-        <v>37</v>
+      <c r="H2" t="s" s="79">
+        <v>152</v>
+      </c>
+      <c r="I2" t="s" s="80">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -775,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -796,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -817,7 +1333,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="164">
   <si>
     <t>Location</t>
   </si>
@@ -498,6 +498,36 @@
   </si>
   <si>
     <t>FPK12Schedule410184</t>
+  </si>
+  <si>
+    <t>ECLocation732294</t>
+  </si>
+  <si>
+    <t>FPK12Exam643555</t>
+  </si>
+  <si>
+    <t>FPK12Schedule392126</t>
+  </si>
+  <si>
+    <t>FPK12Exam449541</t>
+  </si>
+  <si>
+    <t>FPK12Schedule948401</t>
+  </si>
+  <si>
+    <t>ECLocation413771</t>
+  </si>
+  <si>
+    <t>153541</t>
+  </si>
+  <si>
+    <t>890897</t>
+  </si>
+  <si>
+    <t>441313</t>
+  </si>
+  <si>
+    <t>FPK12Exam60683</t>
   </si>
 </sst>
 </file>
@@ -628,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,6 +708,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1255,8 +1306,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="78">
-        <v>148</v>
+      <c r="A2" t="s" s="86">
+        <v>159</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -1274,11 +1325,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="79">
-        <v>152</v>
-      </c>
-      <c r="I2" t="s" s="80">
-        <v>153</v>
+      <c r="H2" t="s" s="87">
+        <v>163</v>
+      </c>
+      <c r="I2" t="s" s="85">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1291,7 +1342,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -1312,7 +1363,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -1333,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="170">
   <si>
     <t>Location</t>
   </si>
@@ -528,6 +528,24 @@
   </si>
   <si>
     <t>FPK12Exam60683</t>
+  </si>
+  <si>
+    <t>ECLocation512196</t>
+  </si>
+  <si>
+    <t>861941</t>
+  </si>
+  <si>
+    <t>912341</t>
+  </si>
+  <si>
+    <t>732160</t>
+  </si>
+  <si>
+    <t>FPK12Exam289722</t>
+  </si>
+  <si>
+    <t>FPK12Schedule3002</t>
   </si>
 </sst>
 </file>
@@ -658,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -708,6 +726,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1306,8 +1333,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="86">
-        <v>159</v>
+      <c r="A2" t="s" s="88">
+        <v>164</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -1325,11 +1352,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="87">
-        <v>163</v>
-      </c>
-      <c r="I2" t="s" s="85">
-        <v>158</v>
+      <c r="H2" t="s" s="89">
+        <v>168</v>
+      </c>
+      <c r="I2" t="s" s="90">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1342,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -1363,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -1384,7 +1411,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="176">
   <si>
     <t>Location</t>
   </si>
@@ -546,6 +546,24 @@
   </si>
   <si>
     <t>FPK12Schedule3002</t>
+  </si>
+  <si>
+    <t>ECLocation938082</t>
+  </si>
+  <si>
+    <t>398669</t>
+  </si>
+  <si>
+    <t>203070</t>
+  </si>
+  <si>
+    <t>232794</t>
+  </si>
+  <si>
+    <t>FPK12Exam524086</t>
+  </si>
+  <si>
+    <t>FPK12Schedule646550</t>
   </si>
 </sst>
 </file>
@@ -676,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,6 +744,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1333,8 +1360,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="88">
-        <v>164</v>
+      <c r="A2" t="s" s="91">
+        <v>170</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -1352,11 +1379,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="89">
-        <v>168</v>
-      </c>
-      <c r="I2" t="s" s="90">
-        <v>169</v>
+      <c r="H2" t="s" s="92">
+        <v>174</v>
+      </c>
+      <c r="I2" t="s" s="93">
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1369,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -1390,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -1411,7 +1438,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="179">
   <si>
     <t>Location</t>
   </si>
@@ -564,6 +564,15 @@
   </si>
   <si>
     <t>FPK12Schedule646550</t>
+  </si>
+  <si>
+    <t>217917</t>
+  </si>
+  <si>
+    <t>312699</t>
+  </si>
+  <si>
+    <t>764341</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1405,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -1417,7 +1426,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -1438,7 +1447,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="186">
   <si>
     <t>Location</t>
   </si>
@@ -573,6 +573,27 @@
   </si>
   <si>
     <t>764341</t>
+  </si>
+  <si>
+    <t>ECLocation888414</t>
+  </si>
+  <si>
+    <t>373313</t>
+  </si>
+  <si>
+    <t>632094</t>
+  </si>
+  <si>
+    <t>479880</t>
+  </si>
+  <si>
+    <t>FPK12Exam456791</t>
+  </si>
+  <si>
+    <t>FPK12Schedule691970</t>
+  </si>
+  <si>
+    <t>ECLocation982223</t>
   </si>
 </sst>
 </file>
@@ -703,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,6 +774,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1369,8 +1402,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="91">
-        <v>170</v>
+      <c r="A2" t="s" s="97">
+        <v>185</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -1388,11 +1421,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="92">
-        <v>174</v>
-      </c>
-      <c r="I2" t="s" s="93">
-        <v>175</v>
+      <c r="H2" t="s" s="95">
+        <v>183</v>
+      </c>
+      <c r="I2" t="s" s="96">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1405,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -1426,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -1447,7 +1480,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="179">
   <si>
     <t>Location</t>
   </si>
@@ -573,27 +573,6 @@
   </si>
   <si>
     <t>764341</t>
-  </si>
-  <si>
-    <t>ECLocation888414</t>
-  </si>
-  <si>
-    <t>373313</t>
-  </si>
-  <si>
-    <t>632094</t>
-  </si>
-  <si>
-    <t>479880</t>
-  </si>
-  <si>
-    <t>FPK12Exam456791</t>
-  </si>
-  <si>
-    <t>FPK12Schedule691970</t>
-  </si>
-  <si>
-    <t>ECLocation982223</t>
   </si>
 </sst>
 </file>
@@ -724,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -774,18 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1402,8 +1369,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="97">
-        <v>185</v>
+      <c r="A2" t="s" s="91">
+        <v>170</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -1421,11 +1388,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="95">
-        <v>183</v>
-      </c>
-      <c r="I2" t="s" s="96">
-        <v>184</v>
+      <c r="H2" t="s" s="92">
+        <v>174</v>
+      </c>
+      <c r="I2" t="s" s="93">
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1438,7 +1405,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -1459,7 +1426,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -1480,7 +1447,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="212">
   <si>
     <t>Location</t>
   </si>
@@ -573,6 +573,105 @@
   </si>
   <si>
     <t>764341</t>
+  </si>
+  <si>
+    <t>ECLocation428402</t>
+  </si>
+  <si>
+    <t>259277</t>
+  </si>
+  <si>
+    <t>807699</t>
+  </si>
+  <si>
+    <t>780194</t>
+  </si>
+  <si>
+    <t>FPK12Exam687624</t>
+  </si>
+  <si>
+    <t>ECLocation477581</t>
+  </si>
+  <si>
+    <t>873922</t>
+  </si>
+  <si>
+    <t>432419</t>
+  </si>
+  <si>
+    <t>123911</t>
+  </si>
+  <si>
+    <t>FPK12Exam852485</t>
+  </si>
+  <si>
+    <t>FPK12Schedule423244</t>
+  </si>
+  <si>
+    <t>ECLocation20354</t>
+  </si>
+  <si>
+    <t>355037</t>
+  </si>
+  <si>
+    <t>935621</t>
+  </si>
+  <si>
+    <t>981748</t>
+  </si>
+  <si>
+    <t>FPK12Exam744419</t>
+  </si>
+  <si>
+    <t>FPK12Schedule210117</t>
+  </si>
+  <si>
+    <t>ECLocation482852</t>
+  </si>
+  <si>
+    <t>343180</t>
+  </si>
+  <si>
+    <t>74313</t>
+  </si>
+  <si>
+    <t>10336</t>
+  </si>
+  <si>
+    <t>ECLocation969401</t>
+  </si>
+  <si>
+    <t>232543</t>
+  </si>
+  <si>
+    <t>593332</t>
+  </si>
+  <si>
+    <t>293584</t>
+  </si>
+  <si>
+    <t>FPK12Exam276509</t>
+  </si>
+  <si>
+    <t>FPK12Schedule293632</t>
+  </si>
+  <si>
+    <t>ECLocation961266</t>
+  </si>
+  <si>
+    <t>622822</t>
+  </si>
+  <si>
+    <t>374500</t>
+  </si>
+  <si>
+    <t>595983</t>
+  </si>
+  <si>
+    <t>FPK12Exam307558</t>
+  </si>
+  <si>
+    <t>FPK12Schedule850627</t>
   </si>
 </sst>
 </file>
@@ -703,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,6 +852,51 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1369,8 +1513,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="91">
-        <v>170</v>
+      <c r="A2" t="s" s="106">
+        <v>206</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -1388,11 +1532,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="92">
-        <v>174</v>
-      </c>
-      <c r="I2" t="s" s="93">
-        <v>175</v>
+      <c r="H2" t="s" s="107">
+        <v>210</v>
+      </c>
+      <c r="I2" t="s" s="108">
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1405,7 +1549,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -1426,7 +1570,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -1447,7 +1591,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="225">
   <si>
     <t>Location</t>
   </si>
@@ -672,6 +672,45 @@
   </si>
   <si>
     <t>FPK12Schedule850627</t>
+  </si>
+  <si>
+    <t>ECLocation870227</t>
+  </si>
+  <si>
+    <t>ECLocation618666</t>
+  </si>
+  <si>
+    <t>444749</t>
+  </si>
+  <si>
+    <t>983143</t>
+  </si>
+  <si>
+    <t>117608</t>
+  </si>
+  <si>
+    <t>FPK12Exam29805</t>
+  </si>
+  <si>
+    <t>FPK12Schedule677718</t>
+  </si>
+  <si>
+    <t>ECLocation165460</t>
+  </si>
+  <si>
+    <t>523051</t>
+  </si>
+  <si>
+    <t>800598</t>
+  </si>
+  <si>
+    <t>194870</t>
+  </si>
+  <si>
+    <t>FPK12Exam238818</t>
+  </si>
+  <si>
+    <t>FPK12Schedule678034</t>
   </si>
 </sst>
 </file>
@@ -802,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -852,6 +891,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1513,8 +1573,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="106">
-        <v>206</v>
+      <c r="A2" t="s" s="113">
+        <v>219</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -1532,11 +1592,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="107">
-        <v>210</v>
-      </c>
-      <c r="I2" t="s" s="108">
-        <v>211</v>
+      <c r="H2" t="s" s="114">
+        <v>223</v>
+      </c>
+      <c r="I2" t="s" s="115">
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1549,7 +1609,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -1570,7 +1630,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -1591,7 +1651,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="237">
   <si>
     <t>Location</t>
   </si>
@@ -711,6 +711,42 @@
   </si>
   <si>
     <t>FPK12Schedule678034</t>
+  </si>
+  <si>
+    <t>ECLocation592561</t>
+  </si>
+  <si>
+    <t>889077</t>
+  </si>
+  <si>
+    <t>556022</t>
+  </si>
+  <si>
+    <t>32708</t>
+  </si>
+  <si>
+    <t>FPK12Exam4472</t>
+  </si>
+  <si>
+    <t>FPK12Schedule534828</t>
+  </si>
+  <si>
+    <t>ECLocation385699</t>
+  </si>
+  <si>
+    <t>ECLocation342987</t>
+  </si>
+  <si>
+    <t>92175</t>
+  </si>
+  <si>
+    <t>62233</t>
+  </si>
+  <si>
+    <t>768473</t>
+  </si>
+  <si>
+    <t>FPK12Exam612281</t>
   </si>
 </sst>
 </file>
@@ -841,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -891,6 +927,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1573,8 +1627,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="113">
-        <v>219</v>
+      <c r="A2" t="s" s="120">
+        <v>232</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -1592,11 +1646,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="114">
-        <v>223</v>
-      </c>
-      <c r="I2" t="s" s="115">
-        <v>224</v>
+      <c r="H2" t="s" s="121">
+        <v>236</v>
+      </c>
+      <c r="I2" t="s" s="118">
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1609,7 +1663,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -1630,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -1651,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="247">
   <si>
     <t>Location</t>
   </si>
@@ -747,6 +747,36 @@
   </si>
   <si>
     <t>FPK12Exam612281</t>
+  </si>
+  <si>
+    <t>ECLocation82811</t>
+  </si>
+  <si>
+    <t>859287</t>
+  </si>
+  <si>
+    <t>554863</t>
+  </si>
+  <si>
+    <t>144490</t>
+  </si>
+  <si>
+    <t>FPK12Exam526377</t>
+  </si>
+  <si>
+    <t>FPK12Schedule608698</t>
+  </si>
+  <si>
+    <t>ECLocation821635</t>
+  </si>
+  <si>
+    <t>677921</t>
+  </si>
+  <si>
+    <t>272041</t>
+  </si>
+  <si>
+    <t>207588</t>
   </si>
 </sst>
 </file>
@@ -877,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,6 +957,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1627,8 +1669,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="120">
-        <v>232</v>
+      <c r="A2" t="s" s="125">
+        <v>243</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>24</v>
@@ -1646,11 +1688,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="121">
-        <v>236</v>
-      </c>
-      <c r="I2" t="s" s="118">
-        <v>230</v>
+      <c r="H2" t="s" s="123">
+        <v>241</v>
+      </c>
+      <c r="I2" t="s" s="124">
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1663,7 +1705,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -1684,7 +1726,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -1705,7 +1747,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F5" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>Location</t>
   </si>
@@ -189,6 +189,57 @@
   </si>
   <si>
     <t>FPK12Schedule401318</t>
+  </si>
+  <si>
+    <t>ECLocation199291</t>
+  </si>
+  <si>
+    <t>53428</t>
+  </si>
+  <si>
+    <t>26754</t>
+  </si>
+  <si>
+    <t>41142</t>
+  </si>
+  <si>
+    <t>FPK12Exam662343</t>
+  </si>
+  <si>
+    <t>FPK12Schedule597626</t>
+  </si>
+  <si>
+    <t>ECLocation665996</t>
+  </si>
+  <si>
+    <t>200026</t>
+  </si>
+  <si>
+    <t>800044</t>
+  </si>
+  <si>
+    <t>319450</t>
+  </si>
+  <si>
+    <t>FPK12Exam460839</t>
+  </si>
+  <si>
+    <t>ECLocation673333</t>
+  </si>
+  <si>
+    <t>637392</t>
+  </si>
+  <si>
+    <t>729339</t>
+  </si>
+  <si>
+    <t>497794</t>
+  </si>
+  <si>
+    <t>FPK12Exam471455</t>
+  </si>
+  <si>
+    <t>FPK12Schedule61515</t>
   </si>
 </sst>
 </file>
@@ -319,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,6 +420,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -795,8 +870,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="29">
-        <v>45</v>
+      <c r="A2" t="s" s="37">
+        <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -814,11 +889,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="30">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s" s="31">
-        <v>50</v>
+      <c r="H2" t="s" s="38">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s" s="39">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -831,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -852,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -873,7 +948,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>Location</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>FPK12Schedule61515</t>
+  </si>
+  <si>
+    <t>ECLocation710929</t>
+  </si>
+  <si>
+    <t>676306</t>
+  </si>
+  <si>
+    <t>504503</t>
+  </si>
+  <si>
+    <t>351914</t>
   </si>
 </sst>
 </file>
@@ -370,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,6 +432,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -870,8 +885,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="37">
-        <v>62</v>
+      <c r="A2" t="s" s="40">
+        <v>68</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -906,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -927,7 +942,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -948,7 +963,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Location</t>
   </si>
@@ -252,6 +252,24 @@
   </si>
   <si>
     <t>351914</t>
+  </si>
+  <si>
+    <t>ECLocation68839</t>
+  </si>
+  <si>
+    <t>78293</t>
+  </si>
+  <si>
+    <t>310737</t>
+  </si>
+  <si>
+    <t>653914</t>
+  </si>
+  <si>
+    <t>FPK12Exam694387</t>
+  </si>
+  <si>
+    <t>FPK12Schedule672482</t>
   </si>
 </sst>
 </file>
@@ -382,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,6 +450,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -885,8 +912,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="40">
-        <v>68</v>
+      <c r="A2" t="s" s="41">
+        <v>72</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -904,11 +931,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="38">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s" s="39">
-        <v>67</v>
+      <c r="H2" t="s" s="42">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s" s="43">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -921,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -942,7 +969,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -963,7 +990,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
   <si>
     <t>Location</t>
   </si>
@@ -270,6 +270,93 @@
   </si>
   <si>
     <t>FPK12Schedule672482</t>
+  </si>
+  <si>
+    <t>ECLocation448816</t>
+  </si>
+  <si>
+    <t>175380</t>
+  </si>
+  <si>
+    <t>122289</t>
+  </si>
+  <si>
+    <t>133600</t>
+  </si>
+  <si>
+    <t>FPK12Exam931376</t>
+  </si>
+  <si>
+    <t>FPK12Schedule356506</t>
+  </si>
+  <si>
+    <t>ECLocation498784</t>
+  </si>
+  <si>
+    <t>ECLocation47541</t>
+  </si>
+  <si>
+    <t>780637</t>
+  </si>
+  <si>
+    <t>696827</t>
+  </si>
+  <si>
+    <t>68833</t>
+  </si>
+  <si>
+    <t>ECLocation319418</t>
+  </si>
+  <si>
+    <t>767936</t>
+  </si>
+  <si>
+    <t>233737</t>
+  </si>
+  <si>
+    <t>90498</t>
+  </si>
+  <si>
+    <t>FPK12Exam894893</t>
+  </si>
+  <si>
+    <t>FPK12Schedule187542</t>
+  </si>
+  <si>
+    <t>ECLocation273334</t>
+  </si>
+  <si>
+    <t>497182</t>
+  </si>
+  <si>
+    <t>23049</t>
+  </si>
+  <si>
+    <t>768741</t>
+  </si>
+  <si>
+    <t>FPK12Exam402783</t>
+  </si>
+  <si>
+    <t>FPK12Schedule998435</t>
+  </si>
+  <si>
+    <t>ECLocation270690</t>
+  </si>
+  <si>
+    <t>893676</t>
+  </si>
+  <si>
+    <t>377999</t>
+  </si>
+  <si>
+    <t>12623</t>
+  </si>
+  <si>
+    <t>FPK12Exam150245</t>
+  </si>
+  <si>
+    <t>FPK12Schedule400739</t>
   </si>
 </sst>
 </file>
@@ -400,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,6 +537,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -912,8 +1041,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="41">
-        <v>72</v>
+      <c r="A2" t="s" s="55">
+        <v>101</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -931,11 +1060,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="42">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s" s="43">
-        <v>77</v>
+      <c r="H2" t="s" s="56">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s" s="57">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -948,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -969,7 +1098,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -990,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
   <si>
     <t>Location</t>
   </si>
@@ -357,6 +357,24 @@
   </si>
   <si>
     <t>FPK12Schedule400739</t>
+  </si>
+  <si>
+    <t>ECLocation747121</t>
+  </si>
+  <si>
+    <t>659404</t>
+  </si>
+  <si>
+    <t>424170</t>
+  </si>
+  <si>
+    <t>324741</t>
+  </si>
+  <si>
+    <t>FPK12Exam254078</t>
+  </si>
+  <si>
+    <t>FPK12Schedule181082</t>
   </si>
 </sst>
 </file>
@@ -487,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,6 +555,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1041,8 +1068,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="55">
-        <v>101</v>
+      <c r="A2" t="s" s="58">
+        <v>107</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1060,11 +1087,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="56">
-        <v>105</v>
-      </c>
-      <c r="I2" t="s" s="57">
-        <v>106</v>
+      <c r="H2" t="s" s="59">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s" s="60">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1077,7 +1104,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1098,7 +1125,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1119,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
   <si>
     <t>Location</t>
   </si>
@@ -375,6 +375,24 @@
   </si>
   <si>
     <t>FPK12Schedule181082</t>
+  </si>
+  <si>
+    <t>ECLocation405480</t>
+  </si>
+  <si>
+    <t>484946</t>
+  </si>
+  <si>
+    <t>775665</t>
+  </si>
+  <si>
+    <t>733807</t>
+  </si>
+  <si>
+    <t>FPK12Exam772581</t>
+  </si>
+  <si>
+    <t>FPK12Schedule721962</t>
   </si>
 </sst>
 </file>
@@ -505,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,6 +573,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1068,8 +1095,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="58">
-        <v>107</v>
+      <c r="A2" t="s" s="61">
+        <v>113</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1087,11 +1114,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="59">
-        <v>111</v>
-      </c>
-      <c r="I2" t="s" s="60">
-        <v>112</v>
+      <c r="H2" t="s" s="62">
+        <v>117</v>
+      </c>
+      <c r="I2" t="s" s="63">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1104,7 +1131,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1125,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1146,7 +1173,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
   <si>
     <t>Location</t>
   </si>
@@ -393,6 +393,24 @@
   </si>
   <si>
     <t>FPK12Schedule721962</t>
+  </si>
+  <si>
+    <t>ECLocation101011</t>
+  </si>
+  <si>
+    <t>689116</t>
+  </si>
+  <si>
+    <t>244267</t>
+  </si>
+  <si>
+    <t>161366</t>
+  </si>
+  <si>
+    <t>FPK12Exam42028</t>
+  </si>
+  <si>
+    <t>FPK12Schedule557229</t>
   </si>
 </sst>
 </file>
@@ -523,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,6 +591,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1095,8 +1122,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="61">
-        <v>113</v>
+      <c r="A2" t="s" s="64">
+        <v>119</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1114,11 +1141,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="62">
-        <v>117</v>
-      </c>
-      <c r="I2" t="s" s="63">
-        <v>118</v>
+      <c r="H2" t="s" s="65">
+        <v>123</v>
+      </c>
+      <c r="I2" t="s" s="66">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1131,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1152,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1173,7 +1200,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
   <si>
     <t>Location</t>
   </si>
@@ -411,6 +411,24 @@
   </si>
   <si>
     <t>FPK12Schedule557229</t>
+  </si>
+  <si>
+    <t>ECLocation552268</t>
+  </si>
+  <si>
+    <t>83242</t>
+  </si>
+  <si>
+    <t>35710</t>
+  </si>
+  <si>
+    <t>429088</t>
+  </si>
+  <si>
+    <t>FPK12Exam912309</t>
+  </si>
+  <si>
+    <t>FPK12Schedule432334</t>
   </si>
 </sst>
 </file>
@@ -541,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,6 +609,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1122,8 +1149,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="64">
-        <v>119</v>
+      <c r="A2" t="s" s="67">
+        <v>125</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1141,11 +1168,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="65">
-        <v>123</v>
-      </c>
-      <c r="I2" t="s" s="66">
-        <v>124</v>
+      <c r="H2" t="s" s="68">
+        <v>129</v>
+      </c>
+      <c r="I2" t="s" s="69">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1158,7 +1185,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1179,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1200,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="141">
   <si>
     <t>Location</t>
   </si>
@@ -429,6 +429,36 @@
   </si>
   <si>
     <t>FPK12Schedule432334</t>
+  </si>
+  <si>
+    <t>ECLocation697557</t>
+  </si>
+  <si>
+    <t>501157</t>
+  </si>
+  <si>
+    <t>911508</t>
+  </si>
+  <si>
+    <t>962564</t>
+  </si>
+  <si>
+    <t>FPK12Exam539096</t>
+  </si>
+  <si>
+    <t>FPK12Schedule253525</t>
+  </si>
+  <si>
+    <t>ECLocation517718</t>
+  </si>
+  <si>
+    <t>364093</t>
+  </si>
+  <si>
+    <t>878511</t>
+  </si>
+  <si>
+    <t>59565</t>
   </si>
 </sst>
 </file>
@@ -559,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,6 +639,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1149,8 +1191,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="67">
-        <v>125</v>
+      <c r="A2" t="s" s="73">
+        <v>137</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1168,11 +1210,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="68">
-        <v>129</v>
-      </c>
-      <c r="I2" t="s" s="69">
-        <v>130</v>
+      <c r="H2" t="s" s="71">
+        <v>135</v>
+      </c>
+      <c r="I2" t="s" s="72">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1185,7 +1227,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1206,7 +1248,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1227,7 +1269,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="150">
   <si>
     <t>Location</t>
   </si>
@@ -459,6 +459,33 @@
   </si>
   <si>
     <t>59565</t>
+  </si>
+  <si>
+    <t>ECLocation780528</t>
+  </si>
+  <si>
+    <t>ECLocation807999</t>
+  </si>
+  <si>
+    <t>180236</t>
+  </si>
+  <si>
+    <t>870542</t>
+  </si>
+  <si>
+    <t>691435</t>
+  </si>
+  <si>
+    <t>FPK12Exam809064</t>
+  </si>
+  <si>
+    <t>FPK12Schedule103437</t>
+  </si>
+  <si>
+    <t>FPK12Exam964187</t>
+  </si>
+  <si>
+    <t>FPK12Schedule296032</t>
   </si>
 </sst>
 </file>
@@ -589,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,6 +666,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1191,8 +1236,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="73">
-        <v>137</v>
+      <c r="A2" t="s" s="75">
+        <v>142</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1210,11 +1255,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="71">
-        <v>135</v>
-      </c>
-      <c r="I2" t="s" s="72">
-        <v>136</v>
+      <c r="H2" t="s" s="78">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s" s="79">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1227,7 +1272,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1248,7 +1293,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1269,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="156">
   <si>
     <t>Location</t>
   </si>
@@ -486,6 +486,24 @@
   </si>
   <si>
     <t>FPK12Schedule296032</t>
+  </si>
+  <si>
+    <t>ECLocation410099</t>
+  </si>
+  <si>
+    <t>420838</t>
+  </si>
+  <si>
+    <t>924513</t>
+  </si>
+  <si>
+    <t>429854</t>
+  </si>
+  <si>
+    <t>FPK12Exam342361</t>
+  </si>
+  <si>
+    <t>FPK12Schedule164819</t>
   </si>
 </sst>
 </file>
@@ -616,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -666,6 +684,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1236,8 +1263,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="75">
-        <v>142</v>
+      <c r="A2" t="s" s="80">
+        <v>150</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1255,11 +1282,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="78">
-        <v>148</v>
-      </c>
-      <c r="I2" t="s" s="79">
-        <v>149</v>
+      <c r="H2" t="s" s="81">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s" s="82">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1272,7 +1299,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1293,7 +1320,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1314,7 +1341,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="164">
   <si>
     <t>Location</t>
   </si>
@@ -504,6 +504,30 @@
   </si>
   <si>
     <t>FPK12Schedule164819</t>
+  </si>
+  <si>
+    <t>ECLocation545133</t>
+  </si>
+  <si>
+    <t>ECLocation780004</t>
+  </si>
+  <si>
+    <t>ECLocation510593</t>
+  </si>
+  <si>
+    <t>471423</t>
+  </si>
+  <si>
+    <t>876879</t>
+  </si>
+  <si>
+    <t>837423</t>
+  </si>
+  <si>
+    <t>FPK12Exam472998</t>
+  </si>
+  <si>
+    <t>FPK12Schedule667163</t>
   </si>
 </sst>
 </file>
@@ -634,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,6 +708,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1263,8 +1302,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="80">
-        <v>150</v>
+      <c r="A2" t="s" s="85">
+        <v>158</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1282,11 +1321,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="81">
-        <v>154</v>
-      </c>
-      <c r="I2" t="s" s="82">
-        <v>155</v>
+      <c r="H2" t="s" s="86">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s" s="87">
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1299,7 +1338,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1320,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1341,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="185">
   <si>
     <t>Location</t>
   </si>
@@ -528,6 +528,69 @@
   </si>
   <si>
     <t>FPK12Schedule667163</t>
+  </si>
+  <si>
+    <t>928619</t>
+  </si>
+  <si>
+    <t>614335</t>
+  </si>
+  <si>
+    <t>814901</t>
+  </si>
+  <si>
+    <t>ECLocation6089</t>
+  </si>
+  <si>
+    <t>270960</t>
+  </si>
+  <si>
+    <t>798649</t>
+  </si>
+  <si>
+    <t>808534</t>
+  </si>
+  <si>
+    <t>FPK12Exam551076</t>
+  </si>
+  <si>
+    <t>FPK12Schedule446275</t>
+  </si>
+  <si>
+    <t>ECLocation802563</t>
+  </si>
+  <si>
+    <t>915755</t>
+  </si>
+  <si>
+    <t>290320</t>
+  </si>
+  <si>
+    <t>463353</t>
+  </si>
+  <si>
+    <t>FPK12Exam875870</t>
+  </si>
+  <si>
+    <t>FPK12Schedule145954</t>
+  </si>
+  <si>
+    <t>ECLocation854952</t>
+  </si>
+  <si>
+    <t>311557</t>
+  </si>
+  <si>
+    <t>446523</t>
+  </si>
+  <si>
+    <t>745152</t>
+  </si>
+  <si>
+    <t>FPK12Exam875622</t>
+  </si>
+  <si>
+    <t>FPK12Schedule764588</t>
   </si>
 </sst>
 </file>
@@ -658,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -708,6 +771,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1302,8 +1392,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="85">
-        <v>158</v>
+      <c r="A2" t="s" s="94">
+        <v>179</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1321,11 +1411,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="86">
-        <v>162</v>
-      </c>
-      <c r="I2" t="s" s="87">
-        <v>163</v>
+      <c r="H2" t="s" s="95">
+        <v>183</v>
+      </c>
+      <c r="I2" t="s" s="96">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1338,7 +1428,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1359,7 +1449,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1380,7 +1470,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="191">
   <si>
     <t>Location</t>
   </si>
@@ -591,6 +591,24 @@
   </si>
   <si>
     <t>FPK12Schedule764588</t>
+  </si>
+  <si>
+    <t>ECLocation573887</t>
+  </si>
+  <si>
+    <t>741347</t>
+  </si>
+  <si>
+    <t>847769</t>
+  </si>
+  <si>
+    <t>300060</t>
+  </si>
+  <si>
+    <t>FPK12Exam261031</t>
+  </si>
+  <si>
+    <t>FPK12Schedule715787</t>
   </si>
 </sst>
 </file>
@@ -721,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,6 +789,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1392,8 +1419,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="94">
-        <v>179</v>
+      <c r="A2" t="s" s="97">
+        <v>185</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1411,11 +1438,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="95">
-        <v>183</v>
-      </c>
-      <c r="I2" t="s" s="96">
-        <v>184</v>
+      <c r="H2" t="s" s="98">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s" s="99">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1428,7 +1455,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1449,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1470,7 +1497,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="203">
   <si>
     <t>Location</t>
   </si>
@@ -609,6 +609,42 @@
   </si>
   <si>
     <t>FPK12Schedule715787</t>
+  </si>
+  <si>
+    <t>ECLocation77441</t>
+  </si>
+  <si>
+    <t>ECLocation9326</t>
+  </si>
+  <si>
+    <t>34382</t>
+  </si>
+  <si>
+    <t>16835</t>
+  </si>
+  <si>
+    <t>20545</t>
+  </si>
+  <si>
+    <t>FPK12Exam72850</t>
+  </si>
+  <si>
+    <t>FPK12Schedule67540</t>
+  </si>
+  <si>
+    <t>35591</t>
+  </si>
+  <si>
+    <t>12870</t>
+  </si>
+  <si>
+    <t>82073</t>
+  </si>
+  <si>
+    <t>FPK12Exam69194</t>
+  </si>
+  <si>
+    <t>FPK12Schedule37880</t>
   </si>
 </sst>
 </file>
@@ -739,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -789,6 +825,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1419,8 +1473,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="97">
-        <v>185</v>
+      <c r="A2" t="s" s="101">
+        <v>192</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1438,11 +1492,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="98">
-        <v>189</v>
-      </c>
-      <c r="I2" t="s" s="99">
-        <v>190</v>
+      <c r="H2" t="s" s="104">
+        <v>201</v>
+      </c>
+      <c r="I2" t="s" s="105">
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1455,7 +1509,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1476,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1497,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="210">
   <si>
     <t>Location</t>
   </si>
@@ -645,6 +645,27 @@
   </si>
   <si>
     <t>FPK12Schedule37880</t>
+  </si>
+  <si>
+    <t>ECLocation23396</t>
+  </si>
+  <si>
+    <t>ECLocation50856</t>
+  </si>
+  <si>
+    <t>3321</t>
+  </si>
+  <si>
+    <t>80102</t>
+  </si>
+  <si>
+    <t>59627</t>
+  </si>
+  <si>
+    <t>FPK12Exam58926</t>
+  </si>
+  <si>
+    <t>FPK12Schedule75070</t>
   </si>
 </sst>
 </file>
@@ -775,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -825,6 +846,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1473,8 +1506,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="101">
-        <v>192</v>
+      <c r="A2" t="s" s="107">
+        <v>204</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1492,11 +1525,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="104">
-        <v>201</v>
-      </c>
-      <c r="I2" t="s" s="105">
-        <v>202</v>
+      <c r="H2" t="s" s="108">
+        <v>208</v>
+      </c>
+      <c r="I2" t="s" s="109">
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1509,7 +1542,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1530,7 +1563,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1551,7 +1584,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="211">
   <si>
     <t>Location</t>
   </si>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>FPK12Schedule75070</t>
+  </si>
+  <si>
+    <t>ECLocation64270</t>
   </si>
 </sst>
 </file>
@@ -796,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,6 +849,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1506,8 +1512,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="107">
-        <v>204</v>
+      <c r="A2" t="s" s="110">
+        <v>210</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="214">
   <si>
     <t>Location</t>
   </si>
@@ -669,6 +669,15 @@
   </si>
   <si>
     <t>ECLocation64270</t>
+  </si>
+  <si>
+    <t>25162</t>
+  </si>
+  <si>
+    <t>56029</t>
+  </si>
+  <si>
+    <t>4239</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1557,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1569,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1590,7 +1599,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="240">
   <si>
     <t>Location</t>
   </si>
@@ -678,6 +678,84 @@
   </si>
   <si>
     <t>4239</t>
+  </si>
+  <si>
+    <t>ECLocation20948</t>
+  </si>
+  <si>
+    <t>58861</t>
+  </si>
+  <si>
+    <t>36080</t>
+  </si>
+  <si>
+    <t>12983</t>
+  </si>
+  <si>
+    <t>FPK12Exam32378</t>
+  </si>
+  <si>
+    <t>FPK12Schedule65678</t>
+  </si>
+  <si>
+    <t>ECLocation84260</t>
+  </si>
+  <si>
+    <t>83780</t>
+  </si>
+  <si>
+    <t>70414</t>
+  </si>
+  <si>
+    <t>29995</t>
+  </si>
+  <si>
+    <t>ECLocation3341</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>48674</t>
+  </si>
+  <si>
+    <t>72095</t>
+  </si>
+  <si>
+    <t>FPK12Exam10172</t>
+  </si>
+  <si>
+    <t>FPK12Schedule67608</t>
+  </si>
+  <si>
+    <t>ECLocation74460</t>
+  </si>
+  <si>
+    <t>57668</t>
+  </si>
+  <si>
+    <t>75912</t>
+  </si>
+  <si>
+    <t>21668</t>
+  </si>
+  <si>
+    <t>FPK12Exam27033</t>
+  </si>
+  <si>
+    <t>FPK12Schedule51019</t>
+  </si>
+  <si>
+    <t>19912</t>
+  </si>
+  <si>
+    <t>54029</t>
+  </si>
+  <si>
+    <t>28280</t>
+  </si>
+  <si>
+    <t>FPK12Exam66386</t>
   </si>
 </sst>
 </file>
@@ -808,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -858,6 +936,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1521,8 +1632,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="110">
-        <v>210</v>
+      <c r="A2" t="s" s="118">
+        <v>230</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1540,11 +1651,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="108">
-        <v>208</v>
-      </c>
-      <c r="I2" t="s" s="109">
-        <v>209</v>
+      <c r="H2" t="s" s="121">
+        <v>239</v>
+      </c>
+      <c r="I2" t="s" s="120">
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1557,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1578,7 +1689,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1599,7 +1710,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>Location</t>
   </si>
@@ -232,6 +232,24 @@
   </si>
   <si>
     <t>FPK12Schedule34206</t>
+  </si>
+  <si>
+    <t>ECLocation58258</t>
+  </si>
+  <si>
+    <t>90514</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>27532</t>
+  </si>
+  <si>
+    <t>FPK12Exam28867</t>
+  </si>
+  <si>
+    <t>FPK12Schedule41978</t>
   </si>
 </sst>
 </file>
@@ -373,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,6 +444,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -870,8 +897,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="34">
-        <v>57</v>
+      <c r="A2" t="s" s="39">
+        <v>65</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -889,11 +916,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="37">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s" s="38">
-        <v>64</v>
+      <c r="H2" t="s" s="40">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s" s="41">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -906,7 +933,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -927,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -948,7 +975,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>Location</t>
   </si>
@@ -250,6 +250,27 @@
   </si>
   <si>
     <t>FPK12Schedule41978</t>
+  </si>
+  <si>
+    <t>ECLocation34929</t>
+  </si>
+  <si>
+    <t>ECLocation21249</t>
+  </si>
+  <si>
+    <t>71067</t>
+  </si>
+  <si>
+    <t>78725</t>
+  </si>
+  <si>
+    <t>28801</t>
+  </si>
+  <si>
+    <t>FPK12Exam31819</t>
+  </si>
+  <si>
+    <t>FPK12Schedule96629</t>
   </si>
 </sst>
 </file>
@@ -391,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,6 +465,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -897,8 +930,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="39">
-        <v>65</v>
+      <c r="A2" t="s" s="43">
+        <v>72</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -916,11 +949,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="40">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s" s="41">
-        <v>70</v>
+      <c r="H2" t="s" s="44">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s" s="45">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -933,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -954,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -975,7 +1008,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
   <si>
     <t>Location</t>
   </si>
@@ -271,6 +271,45 @@
   </si>
   <si>
     <t>FPK12Schedule96629</t>
+  </si>
+  <si>
+    <t>ECLocation41976</t>
+  </si>
+  <si>
+    <t>ECLocation31075</t>
+  </si>
+  <si>
+    <t>7966</t>
+  </si>
+  <si>
+    <t>65969</t>
+  </si>
+  <si>
+    <t>63565</t>
+  </si>
+  <si>
+    <t>FPK12Exam37157</t>
+  </si>
+  <si>
+    <t>FPK12Schedule83333</t>
+  </si>
+  <si>
+    <t>ECLocation45516</t>
+  </si>
+  <si>
+    <t>43361</t>
+  </si>
+  <si>
+    <t>52404</t>
+  </si>
+  <si>
+    <t>50215</t>
+  </si>
+  <si>
+    <t>FPK12Exam67762</t>
+  </si>
+  <si>
+    <t>FPK12Schedule98040</t>
   </si>
 </sst>
 </file>
@@ -412,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,6 +504,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -930,8 +990,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="43">
-        <v>72</v>
+      <c r="A2" t="s" s="50">
+        <v>85</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -949,11 +1009,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="44">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s" s="45">
-        <v>77</v>
+      <c r="H2" t="s" s="51">
+        <v>89</v>
+      </c>
+      <c r="I2" t="s" s="52">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -966,7 +1026,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -987,7 +1047,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1008,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>Location</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>FPK12Schedule98040</t>
+  </si>
+  <si>
+    <t>82291</t>
+  </si>
+  <si>
+    <t>40138</t>
+  </si>
+  <si>
+    <t>84476</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1047,7 +1056,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1068,7 +1077,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="130">
   <si>
     <t>Location</t>
   </si>
@@ -319,6 +319,114 @@
   </si>
   <si>
     <t>84476</t>
+  </si>
+  <si>
+    <t>ECLocation70869</t>
+  </si>
+  <si>
+    <t>91182</t>
+  </si>
+  <si>
+    <t>71571</t>
+  </si>
+  <si>
+    <t>94172</t>
+  </si>
+  <si>
+    <t>FPK12Exam37571</t>
+  </si>
+  <si>
+    <t>FPK12Schedule25947</t>
+  </si>
+  <si>
+    <t>ECLocation74073</t>
+  </si>
+  <si>
+    <t>86416</t>
+  </si>
+  <si>
+    <t>59752</t>
+  </si>
+  <si>
+    <t>58752</t>
+  </si>
+  <si>
+    <t>FPK12Exam58963</t>
+  </si>
+  <si>
+    <t>FPK12Schedule66961</t>
+  </si>
+  <si>
+    <t>ECLocation69120</t>
+  </si>
+  <si>
+    <t>ECLocation57128</t>
+  </si>
+  <si>
+    <t>ECLocation80356</t>
+  </si>
+  <si>
+    <t>9923</t>
+  </si>
+  <si>
+    <t>71339</t>
+  </si>
+  <si>
+    <t>20434</t>
+  </si>
+  <si>
+    <t>FPK12Exam43003</t>
+  </si>
+  <si>
+    <t>FPK12Schedule80114</t>
+  </si>
+  <si>
+    <t>ECLocation12294</t>
+  </si>
+  <si>
+    <t>ECLocation18756</t>
+  </si>
+  <si>
+    <t>35680</t>
+  </si>
+  <si>
+    <t>66867</t>
+  </si>
+  <si>
+    <t>52513</t>
+  </si>
+  <si>
+    <t>FPK12Exam71163</t>
+  </si>
+  <si>
+    <t>FPK12Schedule98139</t>
+  </si>
+  <si>
+    <t>ECLocation50202</t>
+  </si>
+  <si>
+    <t>FPK12Exam95722</t>
+  </si>
+  <si>
+    <t>FPK12Schedule23213</t>
+  </si>
+  <si>
+    <t>ECLocation95922</t>
+  </si>
+  <si>
+    <t>37626</t>
+  </si>
+  <si>
+    <t>54599</t>
+  </si>
+  <si>
+    <t>99490</t>
+  </si>
+  <si>
+    <t>FPK12Exam92679</t>
+  </si>
+  <si>
+    <t>FPK12Schedule9313</t>
   </si>
 </sst>
 </file>
@@ -460,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -513,6 +621,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -999,8 +1170,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="50">
-        <v>85</v>
+      <c r="A2" t="s" s="71">
+        <v>124</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1018,11 +1189,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="51">
-        <v>89</v>
-      </c>
-      <c r="I2" t="s" s="52">
-        <v>90</v>
+      <c r="H2" t="s" s="72">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s" s="73">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1035,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1056,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1077,7 +1248,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="144">
   <si>
     <t>Location</t>
   </si>
@@ -427,6 +427,48 @@
   </si>
   <si>
     <t>FPK12Schedule9313</t>
+  </si>
+  <si>
+    <t>ECLocation5653</t>
+  </si>
+  <si>
+    <t>84104</t>
+  </si>
+  <si>
+    <t>98049</t>
+  </si>
+  <si>
+    <t>77034</t>
+  </si>
+  <si>
+    <t>FPK12Exam29913</t>
+  </si>
+  <si>
+    <t>FPK12Schedule21481</t>
+  </si>
+  <si>
+    <t>ECLocation61637</t>
+  </si>
+  <si>
+    <t>ECLocation59083</t>
+  </si>
+  <si>
+    <t>ECLocation50000</t>
+  </si>
+  <si>
+    <t>93732</t>
+  </si>
+  <si>
+    <t>12719</t>
+  </si>
+  <si>
+    <t>60828</t>
+  </si>
+  <si>
+    <t>FPK12Exam77145</t>
+  </si>
+  <si>
+    <t>FPK12Schedule75279</t>
   </si>
 </sst>
 </file>
@@ -568,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,6 +663,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1170,8 +1236,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="71">
-        <v>124</v>
+      <c r="A2" t="s" s="79">
+        <v>138</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1189,11 +1255,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="72">
-        <v>128</v>
-      </c>
-      <c r="I2" t="s" s="73">
-        <v>129</v>
+      <c r="H2" t="s" s="80">
+        <v>142</v>
+      </c>
+      <c r="I2" t="s" s="81">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1206,7 +1272,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1227,7 +1293,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1248,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="150">
   <si>
     <t>Location</t>
   </si>
@@ -469,6 +469,24 @@
   </si>
   <si>
     <t>FPK12Schedule75279</t>
+  </si>
+  <si>
+    <t>ECLocation68006</t>
+  </si>
+  <si>
+    <t>25549</t>
+  </si>
+  <si>
+    <t>19373</t>
+  </si>
+  <si>
+    <t>13889</t>
+  </si>
+  <si>
+    <t>FPK12Exam20303</t>
+  </si>
+  <si>
+    <t>FPK12Schedule14195</t>
   </si>
 </sst>
 </file>
@@ -610,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,6 +681,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1236,8 +1263,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="79">
-        <v>138</v>
+      <c r="A2" t="s" s="82">
+        <v>144</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1255,11 +1282,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="80">
-        <v>142</v>
-      </c>
-      <c r="I2" t="s" s="81">
-        <v>143</v>
+      <c r="H2" t="s" s="83">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s" s="84">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1272,7 +1299,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1293,7 +1320,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1314,7 +1341,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="156">
   <si>
     <t>Location</t>
   </si>
@@ -487,6 +487,24 @@
   </si>
   <si>
     <t>FPK12Schedule14195</t>
+  </si>
+  <si>
+    <t>ECLocation93655</t>
+  </si>
+  <si>
+    <t>94290</t>
+  </si>
+  <si>
+    <t>78366</t>
+  </si>
+  <si>
+    <t>81918</t>
+  </si>
+  <si>
+    <t>FPK12Exam75181</t>
+  </si>
+  <si>
+    <t>FPK12Schedule87295</t>
   </si>
 </sst>
 </file>
@@ -628,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,6 +699,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1263,8 +1290,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="82">
-        <v>144</v>
+      <c r="A2" t="s" s="85">
+        <v>150</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1282,11 +1309,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="83">
-        <v>148</v>
-      </c>
-      <c r="I2" t="s" s="84">
-        <v>149</v>
+      <c r="H2" t="s" s="86">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s" s="87">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1299,7 +1326,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1320,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1341,7 +1368,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="162">
   <si>
     <t>Location</t>
   </si>
@@ -505,6 +505,24 @@
   </si>
   <si>
     <t>FPK12Schedule87295</t>
+  </si>
+  <si>
+    <t>ECLocation19311</t>
+  </si>
+  <si>
+    <t>37332</t>
+  </si>
+  <si>
+    <t>48614</t>
+  </si>
+  <si>
+    <t>82612</t>
+  </si>
+  <si>
+    <t>FPK12Exam52059</t>
+  </si>
+  <si>
+    <t>FPK12Schedule46099</t>
   </si>
 </sst>
 </file>
@@ -646,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -699,6 +717,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1290,8 +1317,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="85">
-        <v>150</v>
+      <c r="A2" t="s" s="88">
+        <v>156</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1309,11 +1336,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="86">
-        <v>154</v>
-      </c>
-      <c r="I2" t="s" s="87">
-        <v>155</v>
+      <c r="H2" t="s" s="89">
+        <v>160</v>
+      </c>
+      <c r="I2" t="s" s="90">
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1326,7 +1353,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1347,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1368,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8BF4BD-EFDA-444D-A9D0-A87A89BD79D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33969A59-082C-4C13-953A-AEDD87F79AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{59011258-3E7A-408E-B881-47367FDC8FB6}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{59011258-3E7A-408E-B881-47367FDC8FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
     <sheet name="DEMO" sheetId="2" r:id="rId2"/>
+    <sheet name="LMSProd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>Location</t>
   </si>
@@ -96,84 +97,9 @@
     <t>automation</t>
   </si>
   <si>
-    <t>ECLocation74460</t>
-  </si>
-  <si>
-    <t>FPK12Schedule51019</t>
-  </si>
-  <si>
-    <t>19912</t>
-  </si>
-  <si>
-    <t>54029</t>
-  </si>
-  <si>
-    <t>28280</t>
-  </si>
-  <si>
-    <t>FPK12Exam66386</t>
-  </si>
-  <si>
     <t>testexam</t>
   </si>
   <si>
-    <t>ECLocation52010</t>
-  </si>
-  <si>
-    <t>ECLocation34585</t>
-  </si>
-  <si>
-    <t>ECLocation61472</t>
-  </si>
-  <si>
-    <t>85015</t>
-  </si>
-  <si>
-    <t>65034</t>
-  </si>
-  <si>
-    <t>6970</t>
-  </si>
-  <si>
-    <t>FPK12Exam63233</t>
-  </si>
-  <si>
-    <t>ECLocation20493</t>
-  </si>
-  <si>
-    <t>10325</t>
-  </si>
-  <si>
-    <t>40397</t>
-  </si>
-  <si>
-    <t>85367</t>
-  </si>
-  <si>
-    <t>FPK12Exam3148</t>
-  </si>
-  <si>
-    <t>FPK12Schedule39378</t>
-  </si>
-  <si>
-    <t>ECLocation22517</t>
-  </si>
-  <si>
-    <t>62122</t>
-  </si>
-  <si>
-    <t>6451</t>
-  </si>
-  <si>
-    <t>20682</t>
-  </si>
-  <si>
-    <t>FPK12Exam30287</t>
-  </si>
-  <si>
-    <t>FPK12Schedule36919</t>
-  </si>
-  <si>
     <t>ECLocation89622</t>
   </si>
   <si>
@@ -192,321 +118,6 @@
     <t>FPK12Schedule21348</t>
   </si>
   <si>
-    <t>ECLocation87012</t>
-  </si>
-  <si>
-    <t>2764</t>
-  </si>
-  <si>
-    <t>73826</t>
-  </si>
-  <si>
-    <t>75278</t>
-  </si>
-  <si>
-    <t>FPK12Exam37050</t>
-  </si>
-  <si>
-    <t>FPK12Schedule27795</t>
-  </si>
-  <si>
-    <t>ECLocation93455</t>
-  </si>
-  <si>
-    <t>37765</t>
-  </si>
-  <si>
-    <t>22560</t>
-  </si>
-  <si>
-    <t>49757</t>
-  </si>
-  <si>
-    <t>FPK12Exam81038</t>
-  </si>
-  <si>
-    <t>FPK12Schedule22290</t>
-  </si>
-  <si>
-    <t>FPK12Exam64788</t>
-  </si>
-  <si>
-    <t>FPK12Schedule34206</t>
-  </si>
-  <si>
-    <t>ECLocation58258</t>
-  </si>
-  <si>
-    <t>90514</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>27532</t>
-  </si>
-  <si>
-    <t>FPK12Exam28867</t>
-  </si>
-  <si>
-    <t>FPK12Schedule41978</t>
-  </si>
-  <si>
-    <t>ECLocation34929</t>
-  </si>
-  <si>
-    <t>ECLocation21249</t>
-  </si>
-  <si>
-    <t>71067</t>
-  </si>
-  <si>
-    <t>78725</t>
-  </si>
-  <si>
-    <t>28801</t>
-  </si>
-  <si>
-    <t>FPK12Exam31819</t>
-  </si>
-  <si>
-    <t>FPK12Schedule96629</t>
-  </si>
-  <si>
-    <t>ECLocation41976</t>
-  </si>
-  <si>
-    <t>ECLocation31075</t>
-  </si>
-  <si>
-    <t>7966</t>
-  </si>
-  <si>
-    <t>65969</t>
-  </si>
-  <si>
-    <t>63565</t>
-  </si>
-  <si>
-    <t>FPK12Exam37157</t>
-  </si>
-  <si>
-    <t>FPK12Schedule83333</t>
-  </si>
-  <si>
-    <t>ECLocation45516</t>
-  </si>
-  <si>
-    <t>43361</t>
-  </si>
-  <si>
-    <t>52404</t>
-  </si>
-  <si>
-    <t>50215</t>
-  </si>
-  <si>
-    <t>FPK12Exam67762</t>
-  </si>
-  <si>
-    <t>FPK12Schedule98040</t>
-  </si>
-  <si>
-    <t>82291</t>
-  </si>
-  <si>
-    <t>40138</t>
-  </si>
-  <si>
-    <t>84476</t>
-  </si>
-  <si>
-    <t>ECLocation70869</t>
-  </si>
-  <si>
-    <t>91182</t>
-  </si>
-  <si>
-    <t>71571</t>
-  </si>
-  <si>
-    <t>94172</t>
-  </si>
-  <si>
-    <t>FPK12Exam37571</t>
-  </si>
-  <si>
-    <t>FPK12Schedule25947</t>
-  </si>
-  <si>
-    <t>ECLocation74073</t>
-  </si>
-  <si>
-    <t>86416</t>
-  </si>
-  <si>
-    <t>59752</t>
-  </si>
-  <si>
-    <t>58752</t>
-  </si>
-  <si>
-    <t>FPK12Exam58963</t>
-  </si>
-  <si>
-    <t>FPK12Schedule66961</t>
-  </si>
-  <si>
-    <t>ECLocation69120</t>
-  </si>
-  <si>
-    <t>ECLocation57128</t>
-  </si>
-  <si>
-    <t>ECLocation80356</t>
-  </si>
-  <si>
-    <t>9923</t>
-  </si>
-  <si>
-    <t>71339</t>
-  </si>
-  <si>
-    <t>20434</t>
-  </si>
-  <si>
-    <t>FPK12Exam43003</t>
-  </si>
-  <si>
-    <t>FPK12Schedule80114</t>
-  </si>
-  <si>
-    <t>ECLocation12294</t>
-  </si>
-  <si>
-    <t>ECLocation18756</t>
-  </si>
-  <si>
-    <t>35680</t>
-  </si>
-  <si>
-    <t>66867</t>
-  </si>
-  <si>
-    <t>52513</t>
-  </si>
-  <si>
-    <t>FPK12Exam71163</t>
-  </si>
-  <si>
-    <t>FPK12Schedule98139</t>
-  </si>
-  <si>
-    <t>ECLocation50202</t>
-  </si>
-  <si>
-    <t>FPK12Exam95722</t>
-  </si>
-  <si>
-    <t>FPK12Schedule23213</t>
-  </si>
-  <si>
-    <t>ECLocation95922</t>
-  </si>
-  <si>
-    <t>37626</t>
-  </si>
-  <si>
-    <t>54599</t>
-  </si>
-  <si>
-    <t>99490</t>
-  </si>
-  <si>
-    <t>FPK12Exam92679</t>
-  </si>
-  <si>
-    <t>FPK12Schedule9313</t>
-  </si>
-  <si>
-    <t>ECLocation5653</t>
-  </si>
-  <si>
-    <t>84104</t>
-  </si>
-  <si>
-    <t>98049</t>
-  </si>
-  <si>
-    <t>77034</t>
-  </si>
-  <si>
-    <t>FPK12Exam29913</t>
-  </si>
-  <si>
-    <t>FPK12Schedule21481</t>
-  </si>
-  <si>
-    <t>ECLocation61637</t>
-  </si>
-  <si>
-    <t>ECLocation59083</t>
-  </si>
-  <si>
-    <t>ECLocation50000</t>
-  </si>
-  <si>
-    <t>93732</t>
-  </si>
-  <si>
-    <t>12719</t>
-  </si>
-  <si>
-    <t>60828</t>
-  </si>
-  <si>
-    <t>FPK12Exam77145</t>
-  </si>
-  <si>
-    <t>FPK12Schedule75279</t>
-  </si>
-  <si>
-    <t>ECLocation68006</t>
-  </si>
-  <si>
-    <t>25549</t>
-  </si>
-  <si>
-    <t>19373</t>
-  </si>
-  <si>
-    <t>13889</t>
-  </si>
-  <si>
-    <t>FPK12Exam20303</t>
-  </si>
-  <si>
-    <t>FPK12Schedule14195</t>
-  </si>
-  <si>
-    <t>ECLocation93655</t>
-  </si>
-  <si>
-    <t>94290</t>
-  </si>
-  <si>
-    <t>78366</t>
-  </si>
-  <si>
-    <t>81918</t>
-  </si>
-  <si>
-    <t>FPK12Exam75181</t>
-  </si>
-  <si>
-    <t>FPK12Schedule87295</t>
-  </si>
-  <si>
     <t>ECLocation19311</t>
   </si>
   <si>
@@ -523,13 +134,15 @@
   </si>
   <si>
     <t>FPK12Schedule46099</t>
+  </si>
+  <si>
+    <t>fpadminqa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -608,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -642,29 +255,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,225 +309,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,20 +647,20 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F5"/>
+      <selection activeCell="F3" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.21875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="21.77734375"/>
-    <col min="3" max="3" customWidth="true" style="11" width="18.44140625"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875"/>
-    <col min="5" max="5" customWidth="true" style="11" width="20.0"/>
-    <col min="6" max="6" customWidth="true" style="3" width="28.5546875"/>
-    <col min="7" max="7" customWidth="true" width="12.5546875"/>
-    <col min="8" max="8" customWidth="true" width="18.88671875"/>
-    <col min="9" max="9" customWidth="true" width="23.109375"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20" style="11" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1317,8 +693,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="88">
-        <v>156</v>
+      <c r="A2" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1336,11 +712,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="89">
-        <v>160</v>
-      </c>
-      <c r="I2" t="s" s="90">
-        <v>161</v>
+      <c r="H2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1353,7 +729,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1374,7 +750,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1395,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>
@@ -1415,21 +791,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34A1854-B220-450F-BAE2-6C78614F1B21}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.21875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="21.77734375"/>
-    <col min="3" max="3" customWidth="true" style="11" width="18.44140625"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875"/>
-    <col min="5" max="5" customWidth="true" style="11" width="20.0"/>
-    <col min="6" max="6" customWidth="true" style="3" width="28.5546875"/>
-    <col min="7" max="7" customWidth="true" width="12.5546875"/>
-    <col min="8" max="8" customWidth="true" width="18.88671875"/>
-    <col min="9" max="9" customWidth="true" width="23.109375"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20" style="11" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1462,15 +838,15 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="28">
-        <v>45</v>
+      <c r="A2" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>8</v>
@@ -1481,11 +857,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="29">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s" s="30">
-        <v>50</v>
+      <c r="H2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1498,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5">
         <v>2</v>
@@ -1519,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5">
         <v>2</v>
@@ -1540,10 +916,154 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC89DA5F-5453-49B9-831A-B6FC8DDBFC6C}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5">
+        <v>250</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5">
+        <v>250</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5">
+        <v>250</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5">
+        <v>250</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>7</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>Location</t>
   </si>
@@ -137,12 +137,76 @@
   </si>
   <si>
     <t>fpadminqa</t>
+  </si>
+  <si>
+    <t>ECLocation56337</t>
+  </si>
+  <si>
+    <t>52880</t>
+  </si>
+  <si>
+    <t>97137</t>
+  </si>
+  <si>
+    <t>2123</t>
+  </si>
+  <si>
+    <t>FPK12Exam96070</t>
+  </si>
+  <si>
+    <t>FPK12Schedule29642</t>
+  </si>
+  <si>
+    <t>ECLocation70972</t>
+  </si>
+  <si>
+    <t>FPK12Exam20240</t>
+  </si>
+  <si>
+    <t>FPK12Schedule36273</t>
+  </si>
+  <si>
+    <t>ECLocation37408</t>
+  </si>
+  <si>
+    <t>96207</t>
+  </si>
+  <si>
+    <t>42711</t>
+  </si>
+  <si>
+    <t>2372</t>
+  </si>
+  <si>
+    <t>FPK12Exam81985</t>
+  </si>
+  <si>
+    <t>FPK12Schedule12458</t>
+  </si>
+  <si>
+    <t>ECLocation38771</t>
+  </si>
+  <si>
+    <t>86122</t>
+  </si>
+  <si>
+    <t>85231</t>
+  </si>
+  <si>
+    <t>74063</t>
+  </si>
+  <si>
+    <t>FPK12Exam81219</t>
+  </si>
+  <si>
+    <t>FPK12Schedule71733</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -255,11 +319,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,6 +380,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,15 +759,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20" style="11" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.21875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="21.77734375"/>
+    <col min="3" max="3" customWidth="true" style="11" width="18.44140625"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875"/>
+    <col min="5" max="5" customWidth="true" style="11" width="20.0"/>
+    <col min="6" max="6" customWidth="true" style="3" width="28.5546875"/>
+    <col min="7" max="7" customWidth="true" width="12.5546875"/>
+    <col min="8" max="8" customWidth="true" width="18.88671875"/>
+    <col min="9" max="9" customWidth="true" width="23.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -797,15 +904,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20" style="11" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.21875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="21.77734375"/>
+    <col min="3" max="3" customWidth="true" style="11" width="18.44140625"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875"/>
+    <col min="5" max="5" customWidth="true" style="11" width="20.0"/>
+    <col min="6" max="6" customWidth="true" style="3" width="28.5546875"/>
+    <col min="7" max="7" customWidth="true" width="12.5546875"/>
+    <col min="8" max="8" customWidth="true" width="18.88671875"/>
+    <col min="9" max="9" customWidth="true" width="23.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -942,14 +1049,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.6640625"/>
+    <col min="2" max="2" customWidth="true" width="20.0"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625"/>
+    <col min="4" max="5" customWidth="true" width="17.109375"/>
+    <col min="6" max="6" customWidth="true" width="11.77734375"/>
+    <col min="7" max="7" customWidth="true" width="15.5546875"/>
+    <col min="8" max="8" customWidth="true" width="16.0"/>
+    <col min="9" max="9" customWidth="true" width="22.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -982,14 +1089,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>26</v>
+      <c r="A2" t="s" s="27">
+        <v>48</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -1001,11 +1108,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>31</v>
+      <c r="H2" t="s" s="28">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s" s="29">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1018,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F3" s="5">
         <v>250</v>
@@ -1039,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F4" s="5">
         <v>250</v>
@@ -1060,7 +1167,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F5" s="5">
         <v>250</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33969A59-082C-4C13-953A-AEDD87F79AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F0F90E-24E8-414F-A856-23D84C35F91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{59011258-3E7A-408E-B881-47367FDC8FB6}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{59011258-3E7A-408E-B881-47367FDC8FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>Location</t>
   </si>
@@ -91,12 +91,6 @@
     <t>Automation Test</t>
   </si>
   <si>
-    <t>qa</t>
-  </si>
-  <si>
-    <t>automation</t>
-  </si>
-  <si>
     <t>testexam</t>
   </si>
   <si>
@@ -139,51 +133,6 @@
     <t>fpadminqa</t>
   </si>
   <si>
-    <t>ECLocation56337</t>
-  </si>
-  <si>
-    <t>52880</t>
-  </si>
-  <si>
-    <t>97137</t>
-  </si>
-  <si>
-    <t>2123</t>
-  </si>
-  <si>
-    <t>FPK12Exam96070</t>
-  </si>
-  <si>
-    <t>FPK12Schedule29642</t>
-  </si>
-  <si>
-    <t>ECLocation70972</t>
-  </si>
-  <si>
-    <t>FPK12Exam20240</t>
-  </si>
-  <si>
-    <t>FPK12Schedule36273</t>
-  </si>
-  <si>
-    <t>ECLocation37408</t>
-  </si>
-  <si>
-    <t>96207</t>
-  </si>
-  <si>
-    <t>42711</t>
-  </si>
-  <si>
-    <t>2372</t>
-  </si>
-  <si>
-    <t>FPK12Exam81985</t>
-  </si>
-  <si>
-    <t>FPK12Schedule12458</t>
-  </si>
-  <si>
     <t>ECLocation38771</t>
   </si>
   <si>
@@ -200,6 +149,45 @@
   </si>
   <si>
     <t>FPK12Schedule71733</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>ECLocation64339</t>
+  </si>
+  <si>
+    <t>70860</t>
+  </si>
+  <si>
+    <t>32033</t>
+  </si>
+  <si>
+    <t>57044</t>
+  </si>
+  <si>
+    <t>FPK12Exam55758</t>
+  </si>
+  <si>
+    <t>FPK12Schedule33292</t>
+  </si>
+  <si>
+    <t>ECLocation65237</t>
+  </si>
+  <si>
+    <t>48196</t>
+  </si>
+  <si>
+    <t>51072</t>
+  </si>
+  <si>
+    <t>68891</t>
+  </si>
+  <si>
+    <t>FPK12Exam54223</t>
+  </si>
+  <si>
+    <t>FPK12Schedule48334</t>
   </si>
 </sst>
 </file>
@@ -285,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -320,6 +308,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -330,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,40 +380,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -753,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC39AFA-C717-499F-9E45-CA8720B92CCE}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,18 +784,18 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>26</v>
+      <c r="A2" t="s" s="22">
+        <v>44</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5">
         <v>1367</v>
@@ -819,11 +803,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>31</v>
+      <c r="H2" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s" s="24">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -836,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -857,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -878,7 +862,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>
@@ -946,14 +930,14 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>8</v>
@@ -965,10 +949,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -981,7 +965,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5">
         <v>2</v>
@@ -1002,7 +986,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5">
         <v>2</v>
@@ -1023,7 +1007,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
@@ -1043,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC89DA5F-5453-49B9-831A-B6FC8DDBFC6C}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,8 +1073,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="27">
-        <v>48</v>
+      <c r="A2" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1100,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5">
         <v>250</v>
@@ -1108,11 +1092,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="28">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s" s="29">
-        <v>53</v>
+      <c r="H2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1125,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5">
         <v>250</v>
@@ -1146,7 +1130,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5">
         <v>250</v>
@@ -1167,7 +1151,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5">
         <v>250</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F0F90E-24E8-414F-A856-23D84C35F91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF8B2D4-0A21-484E-A6DC-70B414C9D2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{59011258-3E7A-408E-B881-47367FDC8FB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59011258-3E7A-408E-B881-47367FDC8FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>Location</t>
   </si>
@@ -112,24 +112,6 @@
     <t>FPK12Schedule21348</t>
   </si>
   <si>
-    <t>ECLocation19311</t>
-  </si>
-  <si>
-    <t>37332</t>
-  </si>
-  <si>
-    <t>48614</t>
-  </si>
-  <si>
-    <t>82612</t>
-  </si>
-  <si>
-    <t>FPK12Exam52059</t>
-  </si>
-  <si>
-    <t>FPK12Schedule46099</t>
-  </si>
-  <si>
     <t>fpadminqa</t>
   </si>
   <si>
@@ -154,48 +136,29 @@
     <t>admin</t>
   </si>
   <si>
-    <t>ECLocation64339</t>
-  </si>
-  <si>
-    <t>70860</t>
-  </si>
-  <si>
-    <t>32033</t>
-  </si>
-  <si>
-    <t>57044</t>
-  </si>
-  <si>
-    <t>FPK12Exam55758</t>
-  </si>
-  <si>
-    <t>FPK12Schedule33292</t>
+    <t>48196</t>
+  </si>
+  <si>
+    <t>51072</t>
+  </si>
+  <si>
+    <t>68891</t>
+  </si>
+  <si>
+    <t>FPK12Exam1818</t>
+  </si>
+  <si>
+    <t>FPK12Schedule83467</t>
   </si>
   <si>
     <t>ECLocation65237</t>
-  </si>
-  <si>
-    <t>48196</t>
-  </si>
-  <si>
-    <t>51072</t>
-  </si>
-  <si>
-    <t>68891</t>
-  </si>
-  <si>
-    <t>FPK12Exam54223</t>
-  </si>
-  <si>
-    <t>FPK12Schedule48334</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +215,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -273,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -318,18 +287,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,24 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,20 +683,20 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.21875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="21.77734375"/>
-    <col min="3" max="3" customWidth="true" style="11" width="18.44140625"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875"/>
-    <col min="5" max="5" customWidth="true" style="11" width="20.0"/>
-    <col min="6" max="6" customWidth="true" style="3" width="28.5546875"/>
-    <col min="7" max="7" customWidth="true" width="12.5546875"/>
-    <col min="8" max="8" customWidth="true" width="18.88671875"/>
-    <col min="9" max="9" customWidth="true" width="23.109375"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20" style="11" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -784,15 +729,15 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="22">
-        <v>44</v>
+      <c r="A2" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>8</v>
@@ -803,11 +748,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="23">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s" s="24">
-        <v>49</v>
+      <c r="H2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -820,7 +765,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -841,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -862,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>
@@ -888,15 +833,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.21875"/>
-    <col min="2" max="2" customWidth="true" style="3" width="21.77734375"/>
-    <col min="3" max="3" customWidth="true" style="11" width="18.44140625"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875"/>
-    <col min="5" max="5" customWidth="true" style="11" width="20.0"/>
-    <col min="6" max="6" customWidth="true" style="3" width="28.5546875"/>
-    <col min="7" max="7" customWidth="true" width="12.5546875"/>
-    <col min="8" max="8" customWidth="true" width="18.88671875"/>
-    <col min="9" max="9" customWidth="true" width="23.109375"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20" style="11" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1033,14 +978,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.6640625"/>
-    <col min="2" max="2" customWidth="true" width="20.0"/>
-    <col min="3" max="3" customWidth="true" width="12.6640625"/>
-    <col min="4" max="5" customWidth="true" width="17.109375"/>
-    <col min="6" max="6" customWidth="true" width="11.77734375"/>
-    <col min="7" max="7" customWidth="true" width="15.5546875"/>
-    <col min="8" max="8" customWidth="true" width="16.0"/>
-    <col min="9" max="9" customWidth="true" width="22.44140625"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1074,17 +1019,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5">
         <v>250</v>
@@ -1093,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1109,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5">
         <v>250</v>
@@ -1130,7 +1075,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5">
         <v>250</v>
@@ -1151,7 +1096,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5">
         <v>250</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>Location</t>
   </si>
@@ -152,12 +152,73 @@
   </si>
   <si>
     <t>ECLocation65237</t>
+  </si>
+  <si>
+    <t>ECLocation20711</t>
+  </si>
+  <si>
+    <t>48482</t>
+  </si>
+  <si>
+    <t>86768</t>
+  </si>
+  <si>
+    <t>54190</t>
+  </si>
+  <si>
+    <t>FPK12Exam48625</t>
+  </si>
+  <si>
+    <t>FPK12Schedule87107</t>
+  </si>
+  <si>
+    <t>ECLocation98261</t>
+  </si>
+  <si>
+    <t>ECLocation56395</t>
+  </si>
+  <si>
+    <t>21233</t>
+  </si>
+  <si>
+    <t>22417</t>
+  </si>
+  <si>
+    <t>56631</t>
+  </si>
+  <si>
+    <t>FPK12Exam89648</t>
+  </si>
+  <si>
+    <t>FPK12Schedule34284</t>
+  </si>
+  <si>
+    <t>ECLocation18037</t>
+  </si>
+  <si>
+    <t>ECLocation85039</t>
+  </si>
+  <si>
+    <t>90268</t>
+  </si>
+  <si>
+    <t>67503</t>
+  </si>
+  <si>
+    <t>13296</t>
+  </si>
+  <si>
+    <t>FPK12Exam65780</t>
+  </si>
+  <si>
+    <t>FPK12Schedule95731</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -287,11 +348,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,6 +414,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,15 +789,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20" style="11" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.21875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="21.77734375"/>
+    <col min="3" max="3" customWidth="true" style="11" width="18.44140625"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875"/>
+    <col min="5" max="5" customWidth="true" style="11" width="20.0"/>
+    <col min="6" max="6" customWidth="true" style="3" width="28.5546875"/>
+    <col min="7" max="7" customWidth="true" width="12.5546875"/>
+    <col min="8" max="8" customWidth="true" width="18.88671875"/>
+    <col min="9" max="9" customWidth="true" width="23.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -729,8 +830,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>37</v>
+      <c r="A2" t="s" s="28">
+        <v>52</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -748,11 +849,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>36</v>
+      <c r="H2" t="s" s="29">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s" s="30">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -765,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -786,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -807,7 +908,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>
@@ -833,15 +934,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20" style="11" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.21875"/>
+    <col min="2" max="2" customWidth="true" style="3" width="21.77734375"/>
+    <col min="3" max="3" customWidth="true" style="11" width="18.44140625"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875"/>
+    <col min="5" max="5" customWidth="true" style="11" width="20.0"/>
+    <col min="6" max="6" customWidth="true" style="3" width="28.5546875"/>
+    <col min="7" max="7" customWidth="true" width="12.5546875"/>
+    <col min="8" max="8" customWidth="true" width="18.88671875"/>
+    <col min="9" max="9" customWidth="true" width="23.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -978,14 +1079,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.6640625"/>
+    <col min="2" max="2" customWidth="true" width="20.0"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625"/>
+    <col min="4" max="5" customWidth="true" width="17.109375"/>
+    <col min="6" max="6" customWidth="true" width="11.77734375"/>
+    <col min="7" max="7" customWidth="true" width="15.5546875"/>
+    <col min="8" max="8" customWidth="true" width="16.0"/>
+    <col min="9" max="9" customWidth="true" width="22.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1025,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="131">
   <si>
     <t>Location</t>
   </si>
@@ -386,6 +386,51 @@
   </si>
   <si>
     <t>ECLocation98299</t>
+  </si>
+  <si>
+    <t>ECLocation45309</t>
+  </si>
+  <si>
+    <t>44552</t>
+  </si>
+  <si>
+    <t>93494</t>
+  </si>
+  <si>
+    <t>8728</t>
+  </si>
+  <si>
+    <t>FPK12Exam1858</t>
+  </si>
+  <si>
+    <t>ECLocation13272</t>
+  </si>
+  <si>
+    <t>ECLocation94558</t>
+  </si>
+  <si>
+    <t>4027</t>
+  </si>
+  <si>
+    <t>24828</t>
+  </si>
+  <si>
+    <t>82662</t>
+  </si>
+  <si>
+    <t>FPK12Exam10499</t>
+  </si>
+  <si>
+    <t>FPK12Schedule58560</t>
+  </si>
+  <si>
+    <t>ECLocation11698</t>
+  </si>
+  <si>
+    <t>ECLocation96753</t>
+  </si>
+  <si>
+    <t>FPK12Exam66911</t>
   </si>
 </sst>
 </file>
@@ -533,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,6 +633,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -1097,8 +1169,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="61">
-        <v>115</v>
+      <c r="A2" t="s" s="69">
+        <v>129</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1116,11 +1188,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="59">
-        <v>113</v>
-      </c>
-      <c r="I2" t="s" s="60">
-        <v>114</v>
+      <c r="H2" t="s" s="70">
+        <v>130</v>
+      </c>
+      <c r="I2" t="s" s="67">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1133,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1154,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1175,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Location</t>
   </si>
@@ -431,6 +431,42 @@
   </si>
   <si>
     <t>FPK12Exam66911</t>
+  </si>
+  <si>
+    <t>ECLocation29852</t>
+  </si>
+  <si>
+    <t>1358</t>
+  </si>
+  <si>
+    <t>44670</t>
+  </si>
+  <si>
+    <t>11766</t>
+  </si>
+  <si>
+    <t>FPK12Exam28220</t>
+  </si>
+  <si>
+    <t>FPK12Schedule42629</t>
+  </si>
+  <si>
+    <t>ECLocation50954</t>
+  </si>
+  <si>
+    <t>45044</t>
+  </si>
+  <si>
+    <t>59184</t>
+  </si>
+  <si>
+    <t>42692</t>
+  </si>
+  <si>
+    <t>FPK12Exam53770</t>
+  </si>
+  <si>
+    <t>FPK12Schedule28586</t>
   </si>
 </sst>
 </file>
@@ -578,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -633,6 +669,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -1169,8 +1223,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="69">
-        <v>129</v>
+      <c r="A2" t="s" s="74">
+        <v>137</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1188,11 +1242,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="70">
-        <v>130</v>
-      </c>
-      <c r="I2" t="s" s="67">
-        <v>127</v>
+      <c r="H2" t="s" s="75">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s" s="76">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1205,7 +1259,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1226,7 +1280,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1247,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="186">
   <si>
     <t>Location</t>
   </si>
@@ -467,6 +467,135 @@
   </si>
   <si>
     <t>FPK12Schedule28586</t>
+  </si>
+  <si>
+    <t>ECLocation83209</t>
+  </si>
+  <si>
+    <t>37618</t>
+  </si>
+  <si>
+    <t>51790</t>
+  </si>
+  <si>
+    <t>30122</t>
+  </si>
+  <si>
+    <t>FPK12Exam99639</t>
+  </si>
+  <si>
+    <t>FPK12Schedule17160</t>
+  </si>
+  <si>
+    <t>ECLocation63971</t>
+  </si>
+  <si>
+    <t>27653</t>
+  </si>
+  <si>
+    <t>63269</t>
+  </si>
+  <si>
+    <t>97770</t>
+  </si>
+  <si>
+    <t>FPK12Exam39839</t>
+  </si>
+  <si>
+    <t>FPK12Schedule4162</t>
+  </si>
+  <si>
+    <t>ECLocation88388</t>
+  </si>
+  <si>
+    <t>ECLocation80637</t>
+  </si>
+  <si>
+    <t>ECLocation61023</t>
+  </si>
+  <si>
+    <t>ECLocation52228</t>
+  </si>
+  <si>
+    <t>ECLocation26455</t>
+  </si>
+  <si>
+    <t>54179</t>
+  </si>
+  <si>
+    <t>10923</t>
+  </si>
+  <si>
+    <t>61803</t>
+  </si>
+  <si>
+    <t>FPK12Exam82222</t>
+  </si>
+  <si>
+    <t>FPK12Schedule53346</t>
+  </si>
+  <si>
+    <t>ECLocation12234</t>
+  </si>
+  <si>
+    <t>ECLocation16568</t>
+  </si>
+  <si>
+    <t>71779</t>
+  </si>
+  <si>
+    <t>59760</t>
+  </si>
+  <si>
+    <t>69627</t>
+  </si>
+  <si>
+    <t>FPK12Exam82748</t>
+  </si>
+  <si>
+    <t>FPK12Schedule58910</t>
+  </si>
+  <si>
+    <t>ECLocation53720</t>
+  </si>
+  <si>
+    <t>69518</t>
+  </si>
+  <si>
+    <t>89108</t>
+  </si>
+  <si>
+    <t>15076</t>
+  </si>
+  <si>
+    <t>FPK12Exam78459</t>
+  </si>
+  <si>
+    <t>FPK12Schedule1684</t>
+  </si>
+  <si>
+    <t>ECLocation10372</t>
+  </si>
+  <si>
+    <t>FPK12Exam55404</t>
+  </si>
+  <si>
+    <t>ECLocation21953</t>
+  </si>
+  <si>
+    <t>87737</t>
+  </si>
+  <si>
+    <t>87927</t>
+  </si>
+  <si>
+    <t>37737</t>
+  </si>
+  <si>
+    <t>FPK12Exam38575</t>
+  </si>
+  <si>
+    <t>FPK12Schedule10282</t>
   </si>
 </sst>
 </file>
@@ -614,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,6 +798,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -1223,8 +1427,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="74">
-        <v>137</v>
+      <c r="A2" t="s" s="99">
+        <v>180</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1242,11 +1446,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="75">
-        <v>141</v>
-      </c>
-      <c r="I2" t="s" s="76">
-        <v>142</v>
+      <c r="H2" t="s" s="100">
+        <v>184</v>
+      </c>
+      <c r="I2" t="s" s="101">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1259,7 +1463,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1280,7 +1484,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1301,7 +1505,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="192">
   <si>
     <t>Location</t>
   </si>
@@ -596,6 +596,24 @@
   </si>
   <si>
     <t>FPK12Schedule10282</t>
+  </si>
+  <si>
+    <t>ECLocation71699</t>
+  </si>
+  <si>
+    <t>55882</t>
+  </si>
+  <si>
+    <t>87127</t>
+  </si>
+  <si>
+    <t>7716</t>
+  </si>
+  <si>
+    <t>FPK12Exam63944</t>
+  </si>
+  <si>
+    <t>FPK12Schedule61104</t>
   </si>
 </sst>
 </file>
@@ -743,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -798,6 +816,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -1427,8 +1454,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="99">
-        <v>180</v>
+      <c r="A2" t="s" s="102">
+        <v>186</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1446,11 +1473,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="100">
-        <v>184</v>
-      </c>
-      <c r="I2" t="s" s="101">
-        <v>185</v>
+      <c r="H2" t="s" s="103">
+        <v>190</v>
+      </c>
+      <c r="I2" t="s" s="104">
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1463,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1484,7 +1511,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1505,7 +1532,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="198">
   <si>
     <t>Location</t>
   </si>
@@ -614,6 +614,24 @@
   </si>
   <si>
     <t>FPK12Schedule61104</t>
+  </si>
+  <si>
+    <t>ECLocation15105</t>
+  </si>
+  <si>
+    <t>10286</t>
+  </si>
+  <si>
+    <t>49439</t>
+  </si>
+  <si>
+    <t>59218</t>
+  </si>
+  <si>
+    <t>FPK12Exam13769</t>
+  </si>
+  <si>
+    <t>FPK12Schedule34550</t>
   </si>
 </sst>
 </file>
@@ -761,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -816,6 +834,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -1454,8 +1481,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="102">
-        <v>186</v>
+      <c r="A2" t="s" s="105">
+        <v>192</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1473,11 +1500,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="103">
-        <v>190</v>
-      </c>
-      <c r="I2" t="s" s="104">
-        <v>191</v>
+      <c r="H2" t="s" s="106">
+        <v>196</v>
+      </c>
+      <c r="I2" t="s" s="107">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1490,7 +1517,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1511,7 +1538,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1532,7 +1559,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="206">
   <si>
     <t>Location</t>
   </si>
@@ -632,6 +632,30 @@
   </si>
   <si>
     <t>FPK12Schedule34550</t>
+  </si>
+  <si>
+    <t>ECLocation53847</t>
+  </si>
+  <si>
+    <t>FPK12Exam3447</t>
+  </si>
+  <si>
+    <t>ECLocation8487</t>
+  </si>
+  <si>
+    <t>29892</t>
+  </si>
+  <si>
+    <t>27924</t>
+  </si>
+  <si>
+    <t>46989</t>
+  </si>
+  <si>
+    <t>FPK12Exam38976</t>
+  </si>
+  <si>
+    <t>FPK12Schedule18125</t>
   </si>
 </sst>
 </file>
@@ -779,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,6 +858,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -1481,8 +1520,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="105">
-        <v>192</v>
+      <c r="A2" t="s" s="110">
+        <v>200</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1500,11 +1539,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="106">
-        <v>196</v>
-      </c>
-      <c r="I2" t="s" s="107">
-        <v>197</v>
+      <c r="H2" t="s" s="111">
+        <v>204</v>
+      </c>
+      <c r="I2" t="s" s="112">
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1517,7 +1556,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1538,7 +1577,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1559,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="266">
   <si>
     <t>Location</t>
   </si>
@@ -656,6 +656,186 @@
   </si>
   <si>
     <t>FPK12Schedule18125</t>
+  </si>
+  <si>
+    <t>ECLocation93841</t>
+  </si>
+  <si>
+    <t>66478</t>
+  </si>
+  <si>
+    <t>41925</t>
+  </si>
+  <si>
+    <t>69398</t>
+  </si>
+  <si>
+    <t>FPK12Exam52951</t>
+  </si>
+  <si>
+    <t>FPK12Schedule25841</t>
+  </si>
+  <si>
+    <t>ECLocation19153</t>
+  </si>
+  <si>
+    <t>ECLocation68006</t>
+  </si>
+  <si>
+    <t>ECLocation54712</t>
+  </si>
+  <si>
+    <t>ECLocation95163</t>
+  </si>
+  <si>
+    <t>ECLocation3798</t>
+  </si>
+  <si>
+    <t>ECLocation87882</t>
+  </si>
+  <si>
+    <t>ECLocation69751</t>
+  </si>
+  <si>
+    <t>44085</t>
+  </si>
+  <si>
+    <t>73367</t>
+  </si>
+  <si>
+    <t>14734</t>
+  </si>
+  <si>
+    <t>ECLocation65019</t>
+  </si>
+  <si>
+    <t>ECLocation57508</t>
+  </si>
+  <si>
+    <t>44230</t>
+  </si>
+  <si>
+    <t>22682</t>
+  </si>
+  <si>
+    <t>5194</t>
+  </si>
+  <si>
+    <t>FPK12Exam46386</t>
+  </si>
+  <si>
+    <t>FPK12Schedule48454</t>
+  </si>
+  <si>
+    <t>ECLocation9106</t>
+  </si>
+  <si>
+    <t>ECLocation96874</t>
+  </si>
+  <si>
+    <t>20568</t>
+  </si>
+  <si>
+    <t>70224</t>
+  </si>
+  <si>
+    <t>61372</t>
+  </si>
+  <si>
+    <t>FPK12Exam41576</t>
+  </si>
+  <si>
+    <t>FPK12Schedule10594</t>
+  </si>
+  <si>
+    <t>ECLocation70836</t>
+  </si>
+  <si>
+    <t>55715</t>
+  </si>
+  <si>
+    <t>80603</t>
+  </si>
+  <si>
+    <t>53194</t>
+  </si>
+  <si>
+    <t>FPK12Exam9152</t>
+  </si>
+  <si>
+    <t>FPK12Schedule29708</t>
+  </si>
+  <si>
+    <t>ECLocation26115</t>
+  </si>
+  <si>
+    <t>51241</t>
+  </si>
+  <si>
+    <t>8328</t>
+  </si>
+  <si>
+    <t>28161</t>
+  </si>
+  <si>
+    <t>FPK12Exam99017</t>
+  </si>
+  <si>
+    <t>FPK12Schedule11242</t>
+  </si>
+  <si>
+    <t>ECLocation43572</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>41760</t>
+  </si>
+  <si>
+    <t>38280</t>
+  </si>
+  <si>
+    <t>FPK12Exam71324</t>
+  </si>
+  <si>
+    <t>FPK12Schedule58348</t>
+  </si>
+  <si>
+    <t>ECLocation63173</t>
+  </si>
+  <si>
+    <t>40826</t>
+  </si>
+  <si>
+    <t>32912</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>FPK12Exam89496</t>
+  </si>
+  <si>
+    <t>FPK12Schedule31669</t>
+  </si>
+  <si>
+    <t>ECLocation51679</t>
+  </si>
+  <si>
+    <t>76528</t>
+  </si>
+  <si>
+    <t>92048</t>
+  </si>
+  <si>
+    <t>53832</t>
+  </si>
+  <si>
+    <t>FPK12Exam90050</t>
+  </si>
+  <si>
+    <t>FPK12Schedule745</t>
   </si>
 </sst>
 </file>
@@ -803,7 +983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -858,6 +1038,105 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -1520,8 +1799,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="110">
-        <v>200</v>
+      <c r="A2" t="s" s="143">
+        <v>260</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1539,11 +1818,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="111">
-        <v>204</v>
-      </c>
-      <c r="I2" t="s" s="112">
-        <v>205</v>
+      <c r="H2" t="s" s="144">
+        <v>264</v>
+      </c>
+      <c r="I2" t="s" s="145">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1556,7 +1835,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -1577,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -1598,7 +1877,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>Location</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>FPK12Schedule65257</t>
+  </si>
+  <si>
+    <t>ECLocation4867</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -906,8 +912,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="36">
-        <v>67</v>
+      <c r="A2" t="s" s="39">
+        <v>73</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>38</v>

--- a/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
+++ b/src/test/resources/ExcelFiles/ExamCenterDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Focalpoint Automation\FPK12AutomationProject\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E94872-D1DF-4371-A994-E3334611A1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216F39F0-AB53-46AE-9FD1-662DCB99E2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59011258-3E7A-408E-B881-47367FDC8FB6}"/>
+    <workbookView xWindow="4212" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{59011258-3E7A-408E-B881-47367FDC8FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Location</t>
   </si>
@@ -94,24 +94,6 @@
     <t>testexam</t>
   </si>
   <si>
-    <t>ECLocation89622</t>
-  </si>
-  <si>
-    <t>61845</t>
-  </si>
-  <si>
-    <t>96085</t>
-  </si>
-  <si>
-    <t>83116</t>
-  </si>
-  <si>
-    <t>FPK12Exam74398</t>
-  </si>
-  <si>
-    <t>FPK12Schedule21348</t>
-  </si>
-  <si>
     <t>fpadminqa</t>
   </si>
   <si>
@@ -136,130 +118,97 @@
     <t>admin</t>
   </si>
   <si>
-    <t>ECLocation91322</t>
-  </si>
-  <si>
-    <t>3036</t>
-  </si>
-  <si>
-    <t>37405</t>
-  </si>
-  <si>
-    <t>95779</t>
-  </si>
-  <si>
-    <t>FPK12Exam48206</t>
-  </si>
-  <si>
-    <t>FPK12Schedule30646</t>
-  </si>
-  <si>
     <t>FPK12 Automation Test</t>
   </si>
   <si>
-    <t>ECLocation3844</t>
-  </si>
-  <si>
-    <t>33284</t>
-  </si>
-  <si>
-    <t>52580</t>
-  </si>
-  <si>
-    <t>61217</t>
-  </si>
-  <si>
-    <t>FPK12Exam9536</t>
-  </si>
-  <si>
-    <t>FPK12Schedule1135</t>
-  </si>
-  <si>
-    <t>ECLocation90107</t>
-  </si>
-  <si>
-    <t>15684</t>
-  </si>
-  <si>
-    <t>49620</t>
-  </si>
-  <si>
-    <t>11283</t>
-  </si>
-  <si>
-    <t>FPK12Exam2985</t>
-  </si>
-  <si>
-    <t>FPK12Schedule89212</t>
-  </si>
-  <si>
-    <t>ECLocation58322</t>
-  </si>
-  <si>
-    <t>20497</t>
-  </si>
-  <si>
-    <t>69011</t>
-  </si>
-  <si>
-    <t>95346</t>
-  </si>
-  <si>
-    <t>ECLocation55574</t>
-  </si>
-  <si>
-    <t>8464</t>
-  </si>
-  <si>
-    <t>96628</t>
-  </si>
-  <si>
-    <t>84645</t>
-  </si>
-  <si>
-    <t>FPK12Exam53617</t>
-  </si>
-  <si>
-    <t>FPK12Schedule13202</t>
-  </si>
-  <si>
-    <t>ECLocation30599</t>
-  </si>
-  <si>
-    <t>FPK12Exam29110</t>
-  </si>
-  <si>
-    <t>FPK12Schedule58281</t>
-  </si>
-  <si>
-    <t>ECLocation13492</t>
-  </si>
-  <si>
-    <t>FPK12Exam45739</t>
-  </si>
-  <si>
-    <t>FPK12Schedule14150</t>
-  </si>
-  <si>
-    <t>ECLocation70692</t>
-  </si>
-  <si>
-    <t>76114</t>
-  </si>
-  <si>
-    <t>19809</t>
-  </si>
-  <si>
-    <t>48676</t>
-  </si>
-  <si>
-    <t>FPK12Exam85267</t>
-  </si>
-  <si>
-    <t>FPK12Schedule65257</t>
-  </si>
-  <si>
-    <t>ECLocation4867</t>
+    <t>ECLocation84969</t>
+  </si>
+  <si>
+    <t>36066</t>
+  </si>
+  <si>
+    <t>90881</t>
+  </si>
+  <si>
+    <t>90672</t>
+  </si>
+  <si>
+    <t>FPK12Exam95142</t>
+  </si>
+  <si>
+    <t>FPK12Schedule84993</t>
+  </si>
+  <si>
+    <t>FPK12Schedule42107</t>
+  </si>
+  <si>
+    <t>ECLocation15958</t>
+  </si>
+  <si>
+    <t>68595</t>
+  </si>
+  <si>
+    <t>44508</t>
+  </si>
+  <si>
+    <t>47001</t>
+  </si>
+  <si>
+    <t>FPK12Exam68888</t>
+  </si>
+  <si>
+    <t>ECLocation85771</t>
+  </si>
+  <si>
+    <t>FPK12Exam82400</t>
+  </si>
+  <si>
+    <t>FPK12Schedule47023</t>
+  </si>
+  <si>
+    <t>ECLocation99139</t>
+  </si>
+  <si>
+    <t>ECLocation37347</t>
+  </si>
+  <si>
+    <t>ECLocation5282</t>
+  </si>
+  <si>
+    <t>ECLocation70980</t>
+  </si>
+  <si>
+    <t>19556</t>
+  </si>
+  <si>
+    <t>96067</t>
+  </si>
+  <si>
+    <t>69906</t>
+  </si>
+  <si>
+    <t>FPK12Exam26482</t>
+  </si>
+  <si>
+    <t>FPK12Schedule9078</t>
+  </si>
+  <si>
+    <t>ECLocation87635</t>
+  </si>
+  <si>
+    <t>62598</t>
+  </si>
+  <si>
+    <t>11507</t>
+  </si>
+  <si>
+    <t>81993</t>
+  </si>
+  <si>
+    <t>FPK12Exam65831</t>
+  </si>
+  <si>
+    <t>FPK12Schedule54736</t>
   </si>
 </sst>
 </file>
@@ -345,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -391,17 +340,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -412,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,67 +404,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -912,15 +823,15 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="39">
-        <v>73</v>
+      <c r="A2" t="s" s="28">
+        <v>51</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>8</v>
@@ -931,11 +842,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="37">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s" s="38">
-        <v>72</v>
+      <c r="H2" t="s" s="29">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s" s="30">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -948,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F3" s="5">
         <v>1367</v>
@@ -969,7 +880,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F4" s="5">
         <v>1367</v>
@@ -990,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F5" s="5">
         <v>1367</v>
@@ -1057,8 +968,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>18</v>
+      <c r="A2" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1076,11 +987,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>23</v>
+      <c r="H2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1093,7 +1004,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5">
         <v>2</v>
@@ -1114,7 +1025,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5">
         <v>2</v>
@@ -1135,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
@@ -1201,8 +1112,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>25</v>
+      <c r="A2" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -1212,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5">
         <v>250</v>
@@ -1220,11 +1131,11 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>30</v>
+      <c r="H2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1237,7 +1148,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5">
         <v>250</v>
@@ -1258,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5">
         <v>250</v>
@@ -1279,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5">
         <v>250</v>
